--- a/A-Frame-24x24.xlsx
+++ b/A-Frame-24x24.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\playwright-node-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61798273-8DB2-45A7-868B-EFBF257AB42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844AB8EF-BA23-49AF-AED6-C0862996F232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CAF949DF-2433-47B6-A577-C69436EDAE6A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{CAF949DF-2433-47B6-A577-C69436EDAE6A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Size" sheetId="1" r:id="rId1"/>
+    <sheet name="SIZE" sheetId="1" r:id="rId1"/>
+    <sheet name="TYPE OF DISPLAY" sheetId="2" r:id="rId2"/>
+    <sheet name="PROOFING" sheetId="3" r:id="rId3"/>
+    <sheet name="ARTWORK" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="8">
   <si>
     <t>A‐Frame 24x24 + 2 Signs</t>
   </si>
@@ -47,6 +50,18 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>A‐Frame 24x24 + 2 Signs + Rider</t>
+  </si>
+  <si>
+    <t>PDF Proof</t>
+  </si>
+  <si>
+    <t>We Check &amp; Fix your art</t>
+  </si>
+  <si>
+    <t>We Design it</t>
   </si>
 </sst>
 </file>
@@ -68,7 +83,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -78,6 +93,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -94,9 +115,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46A7D45-FF0E-4775-B2EA-1B2D7B36D71B}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection sqref="A1:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2428,4 +2450,8673 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1E8CEB-9ADD-46E8-8F0B-E1FCFCE30FE0}">
+  <dimension ref="A1:F105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1139.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1242.5999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1346.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1449.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1553.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1656.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>17</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1760.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1863.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1967.45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>21</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2174.5500000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>22</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2278.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>23</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2381.65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>24</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2485.1999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>25</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2588.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>26</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2607.2800000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>27</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2707.56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>28</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2807.84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>29</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2908.12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3008.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>31</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3108.68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>32</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3208.96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>33</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3309.24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>34</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3409.52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>35</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3509.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>36</v>
+      </c>
+      <c r="F36" s="1">
+        <v>3610.08</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>37</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3710.36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>38</v>
+      </c>
+      <c r="F38" s="1">
+        <v>3810.64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>39</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3910.92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>40</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4011.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>41</v>
+      </c>
+      <c r="F41" s="1">
+        <v>4111.4799999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>42</v>
+      </c>
+      <c r="F42" s="1">
+        <v>4211.76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>43</v>
+      </c>
+      <c r="F43" s="1">
+        <v>4312.04</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>44</v>
+      </c>
+      <c r="F44" s="1">
+        <v>4412.32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>45</v>
+      </c>
+      <c r="F45" s="1">
+        <v>4512.6000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>46</v>
+      </c>
+      <c r="F46" s="1">
+        <v>4612.88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>47</v>
+      </c>
+      <c r="F47" s="1">
+        <v>4713.16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>48</v>
+      </c>
+      <c r="F48" s="1">
+        <v>4813.4399999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>49</v>
+      </c>
+      <c r="F49" s="1">
+        <v>4913.72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>50</v>
+      </c>
+      <c r="F50" s="1">
+        <v>5014</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>51</v>
+      </c>
+      <c r="F51" s="1">
+        <v>5003.1000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>52</v>
+      </c>
+      <c r="F52" s="1">
+        <v>5101.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>53</v>
+      </c>
+      <c r="F53" s="1">
+        <v>5199.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>54</v>
+      </c>
+      <c r="F54" s="1">
+        <v>5297.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>55</v>
+      </c>
+      <c r="F55" s="1">
+        <v>5395.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>56</v>
+      </c>
+      <c r="F56" s="1">
+        <v>5493.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>57</v>
+      </c>
+      <c r="F57" s="1">
+        <v>5591.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>58</v>
+      </c>
+      <c r="F58" s="1">
+        <v>5689.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>59</v>
+      </c>
+      <c r="F59" s="1">
+        <v>5787.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>60</v>
+      </c>
+      <c r="F60" s="1">
+        <v>5886</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>61</v>
+      </c>
+      <c r="F61" s="1">
+        <v>5984.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>62</v>
+      </c>
+      <c r="F62" s="1">
+        <v>6082.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>63</v>
+      </c>
+      <c r="F63" s="1">
+        <v>6180.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>64</v>
+      </c>
+      <c r="F64" s="1">
+        <v>6278.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>65</v>
+      </c>
+      <c r="F65" s="1">
+        <v>6376.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>66</v>
+      </c>
+      <c r="F66" s="1">
+        <v>6474.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>67</v>
+      </c>
+      <c r="F67" s="1">
+        <v>6572.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>68</v>
+      </c>
+      <c r="F68" s="1">
+        <v>6670.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>69</v>
+      </c>
+      <c r="F69" s="1">
+        <v>6768.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>70</v>
+      </c>
+      <c r="F70" s="1">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>71</v>
+      </c>
+      <c r="F71" s="1">
+        <v>6965.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>72</v>
+      </c>
+      <c r="F72" s="1">
+        <v>7063.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>73</v>
+      </c>
+      <c r="F73" s="1">
+        <v>7161.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>74</v>
+      </c>
+      <c r="F74" s="1">
+        <v>7259.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>75</v>
+      </c>
+      <c r="F75" s="1">
+        <v>7357.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>76</v>
+      </c>
+      <c r="F76" s="1">
+        <v>7289.92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>77</v>
+      </c>
+      <c r="F77" s="1">
+        <v>7385.84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>78</v>
+      </c>
+      <c r="F78" s="1">
+        <v>7481.76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>79</v>
+      </c>
+      <c r="F79" s="1">
+        <v>7577.68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>80</v>
+      </c>
+      <c r="F80" s="1">
+        <v>7673.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>81</v>
+      </c>
+      <c r="F81" s="1">
+        <v>7769.52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>82</v>
+      </c>
+      <c r="F82" s="1">
+        <v>7865.44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>83</v>
+      </c>
+      <c r="F83" s="1">
+        <v>7961.36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>84</v>
+      </c>
+      <c r="F84" s="1">
+        <v>8057.28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>85</v>
+      </c>
+      <c r="F85" s="1">
+        <v>8153.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>86</v>
+      </c>
+      <c r="F86" s="1">
+        <v>8249.1200000000008</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>87</v>
+      </c>
+      <c r="F87" s="1">
+        <v>8345.0400000000009</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>88</v>
+      </c>
+      <c r="F88" s="1">
+        <v>8440.9599999999991</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>89</v>
+      </c>
+      <c r="F89" s="1">
+        <v>8536.8799999999992</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>90</v>
+      </c>
+      <c r="F90" s="1">
+        <v>8632.7999999999993</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>91</v>
+      </c>
+      <c r="F91" s="1">
+        <v>8728.7199999999993</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>92</v>
+      </c>
+      <c r="F92" s="1">
+        <v>8824.64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>93</v>
+      </c>
+      <c r="F93" s="1">
+        <v>8920.56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>94</v>
+      </c>
+      <c r="F94" s="1">
+        <v>9016.48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>95</v>
+      </c>
+      <c r="F95" s="1">
+        <v>9112.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>96</v>
+      </c>
+      <c r="F96" s="1">
+        <v>9208.32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>97</v>
+      </c>
+      <c r="F97" s="1">
+        <v>9304.24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>98</v>
+      </c>
+      <c r="F98" s="1">
+        <v>9400.16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>99</v>
+      </c>
+      <c r="F99" s="1">
+        <v>9496.08</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>100</v>
+      </c>
+      <c r="F100" s="1">
+        <v>9592</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3462D05-694B-4DD5-9CB8-41B892D97ABC}">
+  <dimension ref="A1:F105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1041.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1135.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1229.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1323.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1417.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1511.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>17</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1605.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1699.55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1793.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1887.65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>21</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1981.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>22</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2075.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>23</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2169.8000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>24</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2263.85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>25</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2357.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>26</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2374.52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>27</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2465.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>28</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2556.6799999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>29</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2647.76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2738.84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>31</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2829.92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>32</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>33</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3012.08</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>34</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3103.16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>35</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3194.24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>36</v>
+      </c>
+      <c r="F36" s="1">
+        <v>3285.32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>37</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3376.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>38</v>
+      </c>
+      <c r="F38" s="1">
+        <v>3467.48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>39</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3558.56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>40</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3649.64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>41</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3740.72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>42</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3831.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>43</v>
+      </c>
+      <c r="F43" s="1">
+        <v>3922.88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>44</v>
+      </c>
+      <c r="F44" s="1">
+        <v>4013.96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>45</v>
+      </c>
+      <c r="F45" s="1">
+        <v>4105.04</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>46</v>
+      </c>
+      <c r="F46" s="1">
+        <v>4196.12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>47</v>
+      </c>
+      <c r="F47" s="1">
+        <v>4287.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>48</v>
+      </c>
+      <c r="F48" s="1">
+        <v>4378.28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>49</v>
+      </c>
+      <c r="F49" s="1">
+        <v>4469.3599999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>50</v>
+      </c>
+      <c r="F50" s="1">
+        <v>4560.4399999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>51</v>
+      </c>
+      <c r="F51" s="1">
+        <v>4550.3999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>52</v>
+      </c>
+      <c r="F52" s="1">
+        <v>4639.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>53</v>
+      </c>
+      <c r="F53" s="1">
+        <v>4728.6000000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>54</v>
+      </c>
+      <c r="F54" s="1">
+        <v>4817.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>55</v>
+      </c>
+      <c r="F55" s="1">
+        <v>4906.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>56</v>
+      </c>
+      <c r="F56" s="1">
+        <v>4995.8999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>57</v>
+      </c>
+      <c r="F57" s="1">
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>58</v>
+      </c>
+      <c r="F58" s="1">
+        <v>5174.1000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>59</v>
+      </c>
+      <c r="F59" s="1">
+        <v>5263.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>60</v>
+      </c>
+      <c r="F60" s="1">
+        <v>5352.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>61</v>
+      </c>
+      <c r="F61" s="1">
+        <v>5441.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>62</v>
+      </c>
+      <c r="F62" s="1">
+        <v>5530.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>63</v>
+      </c>
+      <c r="F63" s="1">
+        <v>5619.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>64</v>
+      </c>
+      <c r="F64" s="1">
+        <v>5708.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>65</v>
+      </c>
+      <c r="F65" s="1">
+        <v>5797.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>66</v>
+      </c>
+      <c r="F66" s="1">
+        <v>5886.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>67</v>
+      </c>
+      <c r="F67" s="1">
+        <v>5976</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>68</v>
+      </c>
+      <c r="F68" s="1">
+        <v>6065.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>69</v>
+      </c>
+      <c r="F69" s="1">
+        <v>6154.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>70</v>
+      </c>
+      <c r="F70" s="1">
+        <v>6243.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>71</v>
+      </c>
+      <c r="F71" s="1">
+        <v>6332.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>72</v>
+      </c>
+      <c r="F72" s="1">
+        <v>6421.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>73</v>
+      </c>
+      <c r="F73" s="1">
+        <v>6510.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>74</v>
+      </c>
+      <c r="F74" s="1">
+        <v>6599.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>75</v>
+      </c>
+      <c r="F75" s="1">
+        <v>6688.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>76</v>
+      </c>
+      <c r="F76" s="1">
+        <v>6627.28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>77</v>
+      </c>
+      <c r="F77" s="1">
+        <v>6714.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>78</v>
+      </c>
+      <c r="F78" s="1">
+        <v>6801.52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>79</v>
+      </c>
+      <c r="F79" s="1">
+        <v>6888.64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>80</v>
+      </c>
+      <c r="F80" s="1">
+        <v>6975.76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>81</v>
+      </c>
+      <c r="F81" s="1">
+        <v>7062.88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>82</v>
+      </c>
+      <c r="F82" s="1">
+        <v>7150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>83</v>
+      </c>
+      <c r="F83" s="1">
+        <v>7237.12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>84</v>
+      </c>
+      <c r="F84" s="1">
+        <v>7324.24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>85</v>
+      </c>
+      <c r="F85" s="1">
+        <v>7411.36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>86</v>
+      </c>
+      <c r="F86" s="1">
+        <v>7498.48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>87</v>
+      </c>
+      <c r="F87" s="1">
+        <v>7585.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>88</v>
+      </c>
+      <c r="F88" s="1">
+        <v>7672.72</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>89</v>
+      </c>
+      <c r="F89" s="1">
+        <v>7759.84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>90</v>
+      </c>
+      <c r="F90" s="1">
+        <v>7846.96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>91</v>
+      </c>
+      <c r="F91" s="1">
+        <v>7934.08</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>92</v>
+      </c>
+      <c r="F92" s="1">
+        <v>8021.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>93</v>
+      </c>
+      <c r="F93" s="1">
+        <v>8108.32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>94</v>
+      </c>
+      <c r="F94" s="1">
+        <v>8195.44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>95</v>
+      </c>
+      <c r="F95" s="1">
+        <v>8282.56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>96</v>
+      </c>
+      <c r="F96" s="1">
+        <v>8369.68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>97</v>
+      </c>
+      <c r="F97" s="1">
+        <v>8456.7999999999993</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>98</v>
+      </c>
+      <c r="F98" s="1">
+        <v>8543.92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>99</v>
+      </c>
+      <c r="F99" s="1">
+        <v>8631.0400000000009</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>100</v>
+      </c>
+      <c r="F100" s="1">
+        <v>8718.16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF03578-962D-4957-AF16-23A87527FBD1}">
+  <dimension ref="A1:G203"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104:G203"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1061.1500000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1155.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1249.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1343.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1437.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1531.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1625.45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>18</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1719.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>19</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1813.55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1907.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>21</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2001.65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>22</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2095.6999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>23</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2189.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>24</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2283.8000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>25</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2377.85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>26</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2393.84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>27</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2484.92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>28</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>29</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2667.08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>30</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2758.16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>31</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2849.24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>32</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2940.32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>33</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3031.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>34</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3122.48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>35</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3213.56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>36</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3304.64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>37</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3395.72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>38</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3486.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>39</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3577.88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>40</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3668.96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>41</v>
+      </c>
+      <c r="G41" s="1">
+        <v>3760.04</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>42</v>
+      </c>
+      <c r="G42" s="1">
+        <v>3851.12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>43</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3942.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>44</v>
+      </c>
+      <c r="G44" s="1">
+        <v>4033.28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>45</v>
+      </c>
+      <c r="G45" s="1">
+        <v>4124.3599999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>46</v>
+      </c>
+      <c r="G46" s="1">
+        <v>4215.4399999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>47</v>
+      </c>
+      <c r="G47" s="1">
+        <v>4306.5200000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>48</v>
+      </c>
+      <c r="G48" s="1">
+        <v>4397.6000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>49</v>
+      </c>
+      <c r="G49" s="1">
+        <v>4488.68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>50</v>
+      </c>
+      <c r="G50" s="1">
+        <v>4579.76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>51</v>
+      </c>
+      <c r="G51" s="1">
+        <v>4569.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>52</v>
+      </c>
+      <c r="G52" s="1">
+        <v>4658.3999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>53</v>
+      </c>
+      <c r="G53" s="1">
+        <v>4747.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>54</v>
+      </c>
+      <c r="G54" s="1">
+        <v>4836.6000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>55</v>
+      </c>
+      <c r="G55" s="1">
+        <v>4925.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>56</v>
+      </c>
+      <c r="G56" s="1">
+        <v>5014.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>57</v>
+      </c>
+      <c r="G57" s="1">
+        <v>5103.8999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>58</v>
+      </c>
+      <c r="G58" s="1">
+        <v>5193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>59</v>
+      </c>
+      <c r="G59" s="1">
+        <v>5282.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>60</v>
+      </c>
+      <c r="G60" s="1">
+        <v>5371.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>61</v>
+      </c>
+      <c r="G61" s="1">
+        <v>5460.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>62</v>
+      </c>
+      <c r="G62" s="1">
+        <v>5549.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>63</v>
+      </c>
+      <c r="G63" s="1">
+        <v>5638.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>64</v>
+      </c>
+      <c r="G64" s="1">
+        <v>5727.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>65</v>
+      </c>
+      <c r="G65" s="1">
+        <v>5816.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>66</v>
+      </c>
+      <c r="G66" s="1">
+        <v>5905.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>67</v>
+      </c>
+      <c r="G67" s="1">
+        <v>5994.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>68</v>
+      </c>
+      <c r="G68" s="1">
+        <v>6084</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>69</v>
+      </c>
+      <c r="G69" s="1">
+        <v>6173.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>70</v>
+      </c>
+      <c r="G70" s="1">
+        <v>6262.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>71</v>
+      </c>
+      <c r="G71" s="1">
+        <v>6351.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>72</v>
+      </c>
+      <c r="G72" s="1">
+        <v>6440.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>73</v>
+      </c>
+      <c r="G73" s="1">
+        <v>6529.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>74</v>
+      </c>
+      <c r="G74" s="1">
+        <v>6618.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>75</v>
+      </c>
+      <c r="G75" s="1">
+        <v>6707.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>76</v>
+      </c>
+      <c r="G76" s="1">
+        <v>6645.76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>77</v>
+      </c>
+      <c r="G77" s="1">
+        <v>6732.88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>78</v>
+      </c>
+      <c r="G78" s="1">
+        <v>6820</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>79</v>
+      </c>
+      <c r="G79" s="1">
+        <v>6907.12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>80</v>
+      </c>
+      <c r="G80" s="1">
+        <v>6994.24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>81</v>
+      </c>
+      <c r="G81" s="1">
+        <v>7081.36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>82</v>
+      </c>
+      <c r="G82" s="1">
+        <v>7168.48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>83</v>
+      </c>
+      <c r="G83" s="1">
+        <v>7255.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>84</v>
+      </c>
+      <c r="G84" s="1">
+        <v>7342.72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>85</v>
+      </c>
+      <c r="G85" s="1">
+        <v>7429.84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>86</v>
+      </c>
+      <c r="G86" s="1">
+        <v>7516.96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>87</v>
+      </c>
+      <c r="G87" s="1">
+        <v>7604.08</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>88</v>
+      </c>
+      <c r="G88" s="1">
+        <v>7691.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>89</v>
+      </c>
+      <c r="G89" s="1">
+        <v>7778.32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>90</v>
+      </c>
+      <c r="G90" s="1">
+        <v>7865.44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F91">
+        <v>91</v>
+      </c>
+      <c r="G91" s="1">
+        <v>7952.56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <v>92</v>
+      </c>
+      <c r="G92" s="1">
+        <v>8039.68</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>93</v>
+      </c>
+      <c r="G93" s="1">
+        <v>8126.8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <v>94</v>
+      </c>
+      <c r="G94" s="1">
+        <v>8213.92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95">
+        <v>95</v>
+      </c>
+      <c r="G95" s="1">
+        <v>8301.0400000000009</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" t="s">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <v>96</v>
+      </c>
+      <c r="G96" s="1">
+        <v>8388.16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>97</v>
+      </c>
+      <c r="G97" s="1">
+        <v>8475.2800000000007</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98">
+        <v>98</v>
+      </c>
+      <c r="G98" s="1">
+        <v>8562.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" t="s">
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <v>99</v>
+      </c>
+      <c r="G99" s="1">
+        <v>8649.52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100">
+        <v>100</v>
+      </c>
+      <c r="G100" s="1">
+        <v>8736.64</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" t="s">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105" s="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" t="s">
+        <v>2</v>
+      </c>
+      <c r="F106">
+        <v>3</v>
+      </c>
+      <c r="G106" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>4</v>
+      </c>
+      <c r="G107" s="1">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <v>5</v>
+      </c>
+      <c r="G108" s="1">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" t="s">
+        <v>2</v>
+      </c>
+      <c r="F109">
+        <v>6</v>
+      </c>
+      <c r="G109" s="1">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" t="s">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <v>7</v>
+      </c>
+      <c r="G110" s="1">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" t="s">
+        <v>2</v>
+      </c>
+      <c r="F111">
+        <v>8</v>
+      </c>
+      <c r="G111" s="1">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" t="s">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <v>9</v>
+      </c>
+      <c r="G112" s="1">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" t="s">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <v>10</v>
+      </c>
+      <c r="G113" s="1">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" t="s">
+        <v>2</v>
+      </c>
+      <c r="F114">
+        <v>11</v>
+      </c>
+      <c r="G114" s="1">
+        <v>1113.4000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2</v>
+      </c>
+      <c r="F115">
+        <v>12</v>
+      </c>
+      <c r="G115" s="1">
+        <v>1207.45</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" t="s">
+        <v>2</v>
+      </c>
+      <c r="F116">
+        <v>13</v>
+      </c>
+      <c r="G116" s="1">
+        <v>1301.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" t="s">
+        <v>2</v>
+      </c>
+      <c r="F117">
+        <v>14</v>
+      </c>
+      <c r="G117" s="1">
+        <v>1395.55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
+        <v>2</v>
+      </c>
+      <c r="F118">
+        <v>15</v>
+      </c>
+      <c r="G118" s="1">
+        <v>1489.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" t="s">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <v>16</v>
+      </c>
+      <c r="G119" s="1">
+        <v>1583.65</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" t="s">
+        <v>2</v>
+      </c>
+      <c r="F120">
+        <v>17</v>
+      </c>
+      <c r="G120" s="1">
+        <v>1677.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" t="s">
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <v>18</v>
+      </c>
+      <c r="G121" s="1">
+        <v>1771.75</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" t="s">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <v>19</v>
+      </c>
+      <c r="G122" s="1">
+        <v>1865.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>20</v>
+      </c>
+      <c r="G123" s="1">
+        <v>1959.85</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" t="s">
+        <v>2</v>
+      </c>
+      <c r="F124">
+        <v>21</v>
+      </c>
+      <c r="G124" s="1">
+        <v>2053.9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" t="s">
+        <v>2</v>
+      </c>
+      <c r="F125">
+        <v>22</v>
+      </c>
+      <c r="G125" s="1">
+        <v>2147.9499999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" t="s">
+        <v>2</v>
+      </c>
+      <c r="F126">
+        <v>23</v>
+      </c>
+      <c r="G126" s="1">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" t="s">
+        <v>2</v>
+      </c>
+      <c r="F127">
+        <v>24</v>
+      </c>
+      <c r="G127" s="1">
+        <v>2336.0500000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" t="s">
+        <v>2</v>
+      </c>
+      <c r="F128">
+        <v>25</v>
+      </c>
+      <c r="G128" s="1">
+        <v>2430.1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" t="s">
+        <v>2</v>
+      </c>
+      <c r="F129">
+        <v>26</v>
+      </c>
+      <c r="G129" s="1">
+        <v>2444.44</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" t="s">
+        <v>2</v>
+      </c>
+      <c r="F130">
+        <v>27</v>
+      </c>
+      <c r="G130" s="1">
+        <v>2535.52</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" t="s">
+        <v>2</v>
+      </c>
+      <c r="F131">
+        <v>28</v>
+      </c>
+      <c r="G131" s="1">
+        <v>2626.6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" t="s">
+        <v>2</v>
+      </c>
+      <c r="F132">
+        <v>29</v>
+      </c>
+      <c r="G132" s="1">
+        <v>2717.68</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" t="s">
+        <v>2</v>
+      </c>
+      <c r="F133">
+        <v>30</v>
+      </c>
+      <c r="G133" s="1">
+        <v>2808.76</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" t="s">
+        <v>2</v>
+      </c>
+      <c r="F134">
+        <v>31</v>
+      </c>
+      <c r="G134" s="1">
+        <v>2899.84</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" t="s">
+        <v>2</v>
+      </c>
+      <c r="F135">
+        <v>32</v>
+      </c>
+      <c r="G135" s="1">
+        <v>2990.92</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" t="s">
+        <v>2</v>
+      </c>
+      <c r="F136">
+        <v>33</v>
+      </c>
+      <c r="G136" s="1">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" t="s">
+        <v>2</v>
+      </c>
+      <c r="F137">
+        <v>34</v>
+      </c>
+      <c r="G137" s="1">
+        <v>3173.08</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" t="s">
+        <v>2</v>
+      </c>
+      <c r="F138">
+        <v>35</v>
+      </c>
+      <c r="G138" s="1">
+        <v>3264.16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
+        <v>3</v>
+      </c>
+      <c r="D139" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139">
+        <v>36</v>
+      </c>
+      <c r="G139" s="1">
+        <v>3355.24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>3</v>
+      </c>
+      <c r="D140" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" t="s">
+        <v>2</v>
+      </c>
+      <c r="F140">
+        <v>37</v>
+      </c>
+      <c r="G140" s="1">
+        <v>3446.32</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>3</v>
+      </c>
+      <c r="D141" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" t="s">
+        <v>2</v>
+      </c>
+      <c r="F141">
+        <v>38</v>
+      </c>
+      <c r="G141" s="1">
+        <v>3537.4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" t="s">
+        <v>2</v>
+      </c>
+      <c r="F142">
+        <v>39</v>
+      </c>
+      <c r="G142" s="1">
+        <v>3628.48</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
+        <v>3</v>
+      </c>
+      <c r="D143" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" t="s">
+        <v>2</v>
+      </c>
+      <c r="F143">
+        <v>40</v>
+      </c>
+      <c r="G143" s="1">
+        <v>3719.56</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" t="s">
+        <v>2</v>
+      </c>
+      <c r="F144">
+        <v>41</v>
+      </c>
+      <c r="G144" s="1">
+        <v>3810.64</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" t="s">
+        <v>2</v>
+      </c>
+      <c r="F145">
+        <v>42</v>
+      </c>
+      <c r="G145" s="1">
+        <v>3901.72</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
+        <v>3</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" t="s">
+        <v>2</v>
+      </c>
+      <c r="F146">
+        <v>43</v>
+      </c>
+      <c r="G146" s="1">
+        <v>3992.8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
+        <v>3</v>
+      </c>
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" t="s">
+        <v>2</v>
+      </c>
+      <c r="F147">
+        <v>44</v>
+      </c>
+      <c r="G147" s="1">
+        <v>4083.88</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
+        <v>3</v>
+      </c>
+      <c r="D148" t="s">
+        <v>7</v>
+      </c>
+      <c r="E148" t="s">
+        <v>2</v>
+      </c>
+      <c r="F148">
+        <v>45</v>
+      </c>
+      <c r="G148" s="1">
+        <v>4174.96</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
+        <v>3</v>
+      </c>
+      <c r="D149" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" t="s">
+        <v>2</v>
+      </c>
+      <c r="F149">
+        <v>46</v>
+      </c>
+      <c r="G149" s="1">
+        <v>4266.04</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
+        <v>3</v>
+      </c>
+      <c r="D150" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" t="s">
+        <v>2</v>
+      </c>
+      <c r="F150">
+        <v>47</v>
+      </c>
+      <c r="G150" s="1">
+        <v>4357.12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" t="s">
+        <v>3</v>
+      </c>
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" t="s">
+        <v>2</v>
+      </c>
+      <c r="F151">
+        <v>48</v>
+      </c>
+      <c r="G151" s="1">
+        <v>4448.2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" t="s">
+        <v>3</v>
+      </c>
+      <c r="D152" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" t="s">
+        <v>2</v>
+      </c>
+      <c r="F152">
+        <v>49</v>
+      </c>
+      <c r="G152" s="1">
+        <v>4539.28</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" t="s">
+        <v>3</v>
+      </c>
+      <c r="D153" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" t="s">
+        <v>2</v>
+      </c>
+      <c r="F153">
+        <v>50</v>
+      </c>
+      <c r="G153" s="1">
+        <v>4630.3599999999997</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" t="s">
+        <v>2</v>
+      </c>
+      <c r="F154">
+        <v>51</v>
+      </c>
+      <c r="G154" s="1">
+        <v>4618.8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" t="s">
+        <v>2</v>
+      </c>
+      <c r="F155">
+        <v>52</v>
+      </c>
+      <c r="G155" s="1">
+        <v>4707.8999999999996</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" t="s">
+        <v>2</v>
+      </c>
+      <c r="F156">
+        <v>53</v>
+      </c>
+      <c r="G156" s="1">
+        <v>4797</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" t="s">
+        <v>3</v>
+      </c>
+      <c r="D157" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" t="s">
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <v>54</v>
+      </c>
+      <c r="G157" s="1">
+        <v>4886.1000000000004</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" t="s">
+        <v>3</v>
+      </c>
+      <c r="D158" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" t="s">
+        <v>2</v>
+      </c>
+      <c r="F158">
+        <v>55</v>
+      </c>
+      <c r="G158" s="1">
+        <v>4975.2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" t="s">
+        <v>3</v>
+      </c>
+      <c r="D159" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" t="s">
+        <v>2</v>
+      </c>
+      <c r="F159">
+        <v>56</v>
+      </c>
+      <c r="G159" s="1">
+        <v>5064.3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" t="s">
+        <v>3</v>
+      </c>
+      <c r="D160" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160" t="s">
+        <v>2</v>
+      </c>
+      <c r="F160">
+        <v>57</v>
+      </c>
+      <c r="G160" s="1">
+        <v>5153.3999999999996</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" t="s">
+        <v>3</v>
+      </c>
+      <c r="D161" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" t="s">
+        <v>2</v>
+      </c>
+      <c r="F161">
+        <v>58</v>
+      </c>
+      <c r="G161" s="1">
+        <v>5242.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s">
+        <v>3</v>
+      </c>
+      <c r="D162" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" t="s">
+        <v>2</v>
+      </c>
+      <c r="F162">
+        <v>59</v>
+      </c>
+      <c r="G162" s="1">
+        <v>5331.6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" t="s">
+        <v>3</v>
+      </c>
+      <c r="D163" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" t="s">
+        <v>2</v>
+      </c>
+      <c r="F163">
+        <v>60</v>
+      </c>
+      <c r="G163" s="1">
+        <v>5420.7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
+        <v>3</v>
+      </c>
+      <c r="D164" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" t="s">
+        <v>2</v>
+      </c>
+      <c r="F164">
+        <v>61</v>
+      </c>
+      <c r="G164" s="1">
+        <v>5509.8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
+        <v>3</v>
+      </c>
+      <c r="D165" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" t="s">
+        <v>2</v>
+      </c>
+      <c r="F165">
+        <v>62</v>
+      </c>
+      <c r="G165" s="1">
+        <v>5598.9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>3</v>
+      </c>
+      <c r="D166" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" t="s">
+        <v>2</v>
+      </c>
+      <c r="F166">
+        <v>63</v>
+      </c>
+      <c r="G166" s="1">
+        <v>5688</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" t="s">
+        <v>3</v>
+      </c>
+      <c r="D167" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167" t="s">
+        <v>2</v>
+      </c>
+      <c r="F167">
+        <v>64</v>
+      </c>
+      <c r="G167" s="1">
+        <v>5777.1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" t="s">
+        <v>3</v>
+      </c>
+      <c r="D168" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" t="s">
+        <v>2</v>
+      </c>
+      <c r="F168">
+        <v>65</v>
+      </c>
+      <c r="G168" s="1">
+        <v>5866.2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
+        <v>3</v>
+      </c>
+      <c r="D169" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" t="s">
+        <v>2</v>
+      </c>
+      <c r="F169">
+        <v>66</v>
+      </c>
+      <c r="G169" s="1">
+        <v>5955.3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" t="s">
+        <v>3</v>
+      </c>
+      <c r="D170" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170" t="s">
+        <v>2</v>
+      </c>
+      <c r="F170">
+        <v>67</v>
+      </c>
+      <c r="G170" s="1">
+        <v>6044.4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
+        <v>3</v>
+      </c>
+      <c r="D171" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" t="s">
+        <v>2</v>
+      </c>
+      <c r="F171">
+        <v>68</v>
+      </c>
+      <c r="G171" s="1">
+        <v>6133.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" t="s">
+        <v>3</v>
+      </c>
+      <c r="D172" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" t="s">
+        <v>2</v>
+      </c>
+      <c r="F172">
+        <v>69</v>
+      </c>
+      <c r="G172" s="1">
+        <v>6222.6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" t="s">
+        <v>3</v>
+      </c>
+      <c r="D173" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" t="s">
+        <v>2</v>
+      </c>
+      <c r="F173">
+        <v>70</v>
+      </c>
+      <c r="G173" s="1">
+        <v>6311.7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" t="s">
+        <v>3</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" t="s">
+        <v>2</v>
+      </c>
+      <c r="F174">
+        <v>71</v>
+      </c>
+      <c r="G174" s="1">
+        <v>6400.8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" t="s">
+        <v>3</v>
+      </c>
+      <c r="D175" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" t="s">
+        <v>2</v>
+      </c>
+      <c r="F175">
+        <v>72</v>
+      </c>
+      <c r="G175" s="1">
+        <v>6489.9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" t="s">
+        <v>3</v>
+      </c>
+      <c r="D176" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" t="s">
+        <v>2</v>
+      </c>
+      <c r="F176">
+        <v>73</v>
+      </c>
+      <c r="G176" s="1">
+        <v>6579</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" t="s">
+        <v>3</v>
+      </c>
+      <c r="D177" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" t="s">
+        <v>2</v>
+      </c>
+      <c r="F177">
+        <v>74</v>
+      </c>
+      <c r="G177" s="1">
+        <v>6668.1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" t="s">
+        <v>3</v>
+      </c>
+      <c r="D178" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" t="s">
+        <v>2</v>
+      </c>
+      <c r="F178">
+        <v>75</v>
+      </c>
+      <c r="G178" s="1">
+        <v>6757.2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" t="s">
+        <v>3</v>
+      </c>
+      <c r="D179" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" t="s">
+        <v>2</v>
+      </c>
+      <c r="F179">
+        <v>76</v>
+      </c>
+      <c r="G179" s="1">
+        <v>6694.16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>3</v>
+      </c>
+      <c r="D180" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" t="s">
+        <v>2</v>
+      </c>
+      <c r="F180">
+        <v>77</v>
+      </c>
+      <c r="G180" s="1">
+        <v>6781.28</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1</v>
+      </c>
+      <c r="C181" t="s">
+        <v>3</v>
+      </c>
+      <c r="D181" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181" t="s">
+        <v>2</v>
+      </c>
+      <c r="F181">
+        <v>78</v>
+      </c>
+      <c r="G181" s="1">
+        <v>6868.4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" t="s">
+        <v>3</v>
+      </c>
+      <c r="D182" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" t="s">
+        <v>2</v>
+      </c>
+      <c r="F182">
+        <v>79</v>
+      </c>
+      <c r="G182" s="1">
+        <v>6955.52</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" t="s">
+        <v>3</v>
+      </c>
+      <c r="D183" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" t="s">
+        <v>2</v>
+      </c>
+      <c r="F183">
+        <v>80</v>
+      </c>
+      <c r="G183" s="1">
+        <v>7042.64</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" t="s">
+        <v>3</v>
+      </c>
+      <c r="D184" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" t="s">
+        <v>2</v>
+      </c>
+      <c r="F184">
+        <v>81</v>
+      </c>
+      <c r="G184" s="1">
+        <v>7129.76</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>0</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" t="s">
+        <v>3</v>
+      </c>
+      <c r="D185" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" t="s">
+        <v>2</v>
+      </c>
+      <c r="F185">
+        <v>82</v>
+      </c>
+      <c r="G185" s="1">
+        <v>7216.88</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" t="s">
+        <v>3</v>
+      </c>
+      <c r="D186" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" t="s">
+        <v>2</v>
+      </c>
+      <c r="F186">
+        <v>83</v>
+      </c>
+      <c r="G186" s="1">
+        <v>7304</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" t="s">
+        <v>3</v>
+      </c>
+      <c r="D187" t="s">
+        <v>7</v>
+      </c>
+      <c r="E187" t="s">
+        <v>2</v>
+      </c>
+      <c r="F187">
+        <v>84</v>
+      </c>
+      <c r="G187" s="1">
+        <v>7391.12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>0</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1</v>
+      </c>
+      <c r="C188" t="s">
+        <v>3</v>
+      </c>
+      <c r="D188" t="s">
+        <v>7</v>
+      </c>
+      <c r="E188" t="s">
+        <v>2</v>
+      </c>
+      <c r="F188">
+        <v>85</v>
+      </c>
+      <c r="G188" s="1">
+        <v>7478.24</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" t="s">
+        <v>3</v>
+      </c>
+      <c r="D189" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189" t="s">
+        <v>2</v>
+      </c>
+      <c r="F189">
+        <v>86</v>
+      </c>
+      <c r="G189" s="1">
+        <v>7565.36</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" t="s">
+        <v>3</v>
+      </c>
+      <c r="D190" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" t="s">
+        <v>2</v>
+      </c>
+      <c r="F190">
+        <v>87</v>
+      </c>
+      <c r="G190" s="1">
+        <v>7652.48</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" t="s">
+        <v>3</v>
+      </c>
+      <c r="D191" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" t="s">
+        <v>2</v>
+      </c>
+      <c r="F191">
+        <v>88</v>
+      </c>
+      <c r="G191" s="1">
+        <v>7739.6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>0</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" t="s">
+        <v>3</v>
+      </c>
+      <c r="D192" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" t="s">
+        <v>2</v>
+      </c>
+      <c r="F192">
+        <v>89</v>
+      </c>
+      <c r="G192" s="1">
+        <v>7826.72</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
+        <v>3</v>
+      </c>
+      <c r="D193" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" t="s">
+        <v>2</v>
+      </c>
+      <c r="F193">
+        <v>90</v>
+      </c>
+      <c r="G193" s="1">
+        <v>7913.84</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
+        <v>3</v>
+      </c>
+      <c r="D194" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" t="s">
+        <v>2</v>
+      </c>
+      <c r="F194">
+        <v>91</v>
+      </c>
+      <c r="G194" s="1">
+        <v>8000.96</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1</v>
+      </c>
+      <c r="C195" t="s">
+        <v>3</v>
+      </c>
+      <c r="D195" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" t="s">
+        <v>2</v>
+      </c>
+      <c r="F195">
+        <v>92</v>
+      </c>
+      <c r="G195" s="1">
+        <v>8088.08</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
+        <v>3</v>
+      </c>
+      <c r="D196" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" t="s">
+        <v>2</v>
+      </c>
+      <c r="F196">
+        <v>93</v>
+      </c>
+      <c r="G196" s="1">
+        <v>8175.2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" t="s">
+        <v>3</v>
+      </c>
+      <c r="D197" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" t="s">
+        <v>2</v>
+      </c>
+      <c r="F197">
+        <v>94</v>
+      </c>
+      <c r="G197" s="1">
+        <v>8262.32</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198" t="s">
+        <v>3</v>
+      </c>
+      <c r="D198" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198" t="s">
+        <v>2</v>
+      </c>
+      <c r="F198">
+        <v>95</v>
+      </c>
+      <c r="G198" s="1">
+        <v>8349.44</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" t="s">
+        <v>3</v>
+      </c>
+      <c r="D199" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" t="s">
+        <v>2</v>
+      </c>
+      <c r="F199">
+        <v>96</v>
+      </c>
+      <c r="G199" s="1">
+        <v>8436.56</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>0</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
+        <v>3</v>
+      </c>
+      <c r="D200" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200" t="s">
+        <v>2</v>
+      </c>
+      <c r="F200">
+        <v>97</v>
+      </c>
+      <c r="G200" s="1">
+        <v>8523.68</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" t="s">
+        <v>3</v>
+      </c>
+      <c r="D201" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" t="s">
+        <v>2</v>
+      </c>
+      <c r="F201">
+        <v>98</v>
+      </c>
+      <c r="G201" s="1">
+        <v>8610.7999999999993</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>0</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202" t="s">
+        <v>3</v>
+      </c>
+      <c r="D202" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" t="s">
+        <v>2</v>
+      </c>
+      <c r="F202">
+        <v>99</v>
+      </c>
+      <c r="G202" s="1">
+        <v>8697.92</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" t="s">
+        <v>3</v>
+      </c>
+      <c r="D203" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" t="s">
+        <v>2</v>
+      </c>
+      <c r="F203">
+        <v>100</v>
+      </c>
+      <c r="G203" s="1">
+        <v>8785.0400000000009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/A-Frame-24x24.xlsx
+++ b/A-Frame-24x24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\playwright-node-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844AB8EF-BA23-49AF-AED6-C0862996F232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC76765C-AFEE-42BE-B36A-2ACBC1B50633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{CAF949DF-2433-47B6-A577-C69436EDAE6A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="9">
   <si>
     <t>A‐Frame 24x24 + 2 Signs</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>We Design it</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -433,19 +436,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46A7D45-FF0E-4775-B2EA-1B2D7B36D71B}">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection sqref="A1:A100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,8 +468,22 @@
       <c r="F1" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="str">
+        <f>_xlfn.CONCAT(E1,H1,G1,H1,G1,H1,F1)</f>
+        <v>1,0,0,99</v>
+      </c>
+      <c r="J1" t="str">
+        <f>_xlfn.CONCAT(E1,H1)</f>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -484,8 +502,22 @@
       <c r="F2" s="1">
         <v>198</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I65" si="0">_xlfn.CONCAT(E2,H2,G2,H2,G2,H2,F2)</f>
+        <v>2,0,0,198</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J65" si="1">_xlfn.CONCAT(E2,H2)</f>
+        <v>2,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -504,8 +536,22 @@
       <c r="F3" s="1">
         <v>297</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="0"/>
+        <v>3,0,0,297</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="1"/>
+        <v>3,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -524,8 +570,22 @@
       <c r="F4" s="1">
         <v>396</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>4,0,0,396</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>4,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -544,8 +604,22 @@
       <c r="F5" s="1">
         <v>495</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>5,0,0,495</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>5,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -564,8 +638,22 @@
       <c r="F6" s="1">
         <v>594</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>6,0,0,594</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>6,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -584,8 +672,22 @@
       <c r="F7" s="1">
         <v>693</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>7,0,0,693</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>7,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -604,8 +706,22 @@
       <c r="F8" s="1">
         <v>792</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>8,0,0,792</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>8,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -624,8 +740,22 @@
       <c r="F9" s="1">
         <v>891</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>9,0,0,891</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>9,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -644,8 +774,22 @@
       <c r="F10" s="1">
         <v>990</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>10,0,0,990</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>10,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -664,8 +808,22 @@
       <c r="F11" s="1">
         <v>1034.55</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>11,0,0,1034.55</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v>11,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -684,8 +842,22 @@
       <c r="F12" s="1">
         <v>1128.5999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>12,0,0,1128.6</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
+        <v>12,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -704,8 +876,22 @@
       <c r="F13" s="1">
         <v>1222.6500000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>13,0,0,1222.65</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="1"/>
+        <v>13,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -724,8 +910,22 @@
       <c r="F14" s="1">
         <v>1316.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>14,0,0,1316.7</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="1"/>
+        <v>14,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -744,8 +944,22 @@
       <c r="F15" s="1">
         <v>1410.75</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>15,0,0,1410.75</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="1"/>
+        <v>15,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -764,8 +978,22 @@
       <c r="F16" s="1">
         <v>1504.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>16,0,0,1504.8</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="1"/>
+        <v>16,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -784,8 +1012,22 @@
       <c r="F17" s="1">
         <v>1598.85</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>17,0,0,1598.85</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="1"/>
+        <v>17,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -804,8 +1046,22 @@
       <c r="F18" s="1">
         <v>1692.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>18,0,0,1692.9</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="1"/>
+        <v>18,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -824,8 +1080,22 @@
       <c r="F19" s="1">
         <v>1786.95</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>19,0,0,1786.95</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="1"/>
+        <v>19,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -844,8 +1114,22 @@
       <c r="F20" s="1">
         <v>1881</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>20,0,0,1881</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="1"/>
+        <v>20,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -864,8 +1148,22 @@
       <c r="F21" s="1">
         <v>1975.05</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>21,0,0,1975.05</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="1"/>
+        <v>21,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -884,8 +1182,22 @@
       <c r="F22" s="1">
         <v>2069.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>22,0,0,2069.1</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="1"/>
+        <v>22,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -904,8 +1216,22 @@
       <c r="F23" s="1">
         <v>2163.15</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>23,0,0,2163.15</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="1"/>
+        <v>23,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -924,8 +1250,22 @@
       <c r="F24" s="1">
         <v>2257.1999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>24,0,0,2257.2</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="1"/>
+        <v>24,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -944,8 +1284,22 @@
       <c r="F25" s="1">
         <v>2351.25</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>25,0,0,2351.25</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="1"/>
+        <v>25,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -964,8 +1318,22 @@
       <c r="F26" s="1">
         <v>2368.08</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>26,0,0,2368.08</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="1"/>
+        <v>26,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -984,8 +1352,22 @@
       <c r="F27" s="1">
         <v>2459.16</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>27,0,0,2459.16</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="1"/>
+        <v>27,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1004,8 +1386,22 @@
       <c r="F28" s="1">
         <v>2550.2399999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>28,0,0,2550.24</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="1"/>
+        <v>28,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1024,8 +1420,22 @@
       <c r="F29" s="1">
         <v>2641.32</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>29,0,0,2641.32</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="1"/>
+        <v>29,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1044,8 +1454,22 @@
       <c r="F30" s="1">
         <v>2732.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>30,0,0,2732.4</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="1"/>
+        <v>30,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1064,8 +1488,22 @@
       <c r="F31" s="1">
         <v>2823.48</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>31,0,0,2823.48</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="1"/>
+        <v>31,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1084,8 +1522,22 @@
       <c r="F32" s="1">
         <v>2914.56</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>32,0,0,2914.56</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="1"/>
+        <v>32,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1104,8 +1556,22 @@
       <c r="F33" s="1">
         <v>3005.64</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>33,0,0,3005.64</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="1"/>
+        <v>33,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1124,8 +1590,22 @@
       <c r="F34" s="1">
         <v>3096.72</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>34,0,0,3096.72</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="1"/>
+        <v>34,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1144,8 +1624,22 @@
       <c r="F35" s="1">
         <v>3187.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>35,0,0,3187.8</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="1"/>
+        <v>35,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1164,8 +1658,22 @@
       <c r="F36" s="1">
         <v>3278.88</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>36,0,0,3278.88</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="1"/>
+        <v>36,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1184,8 +1692,22 @@
       <c r="F37" s="1">
         <v>3369.96</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>37,0,0,3369.96</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="1"/>
+        <v>37,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1204,8 +1726,22 @@
       <c r="F38" s="1">
         <v>3461.04</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>38,0,0,3461.04</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="1"/>
+        <v>38,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1224,8 +1760,22 @@
       <c r="F39" s="1">
         <v>3552.12</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>39,0,0,3552.12</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="1"/>
+        <v>39,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1244,8 +1794,22 @@
       <c r="F40" s="1">
         <v>3643.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>40,0,0,3643.2</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="1"/>
+        <v>40,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1264,8 +1828,22 @@
       <c r="F41" s="1">
         <v>3734.28</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>41,0,0,3734.28</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="1"/>
+        <v>41,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1284,8 +1862,22 @@
       <c r="F42" s="1">
         <v>3825.36</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>42,0,0,3825.36</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="1"/>
+        <v>42,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1304,8 +1896,22 @@
       <c r="F43" s="1">
         <v>3916.44</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>43,0,0,3916.44</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="1"/>
+        <v>43,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1324,8 +1930,22 @@
       <c r="F44" s="1">
         <v>4007.52</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>44,0,0,4007.52</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="1"/>
+        <v>44,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1344,8 +1964,22 @@
       <c r="F45" s="1">
         <v>4098.6000000000004</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>45,0,0,4098.6</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="1"/>
+        <v>45,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -1364,8 +1998,22 @@
       <c r="F46" s="1">
         <v>4189.68</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>46,0,0,4189.68</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="1"/>
+        <v>46,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -1384,8 +2032,22 @@
       <c r="F47" s="1">
         <v>4280.76</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>47,0,0,4280.76</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="1"/>
+        <v>47,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -1404,8 +2066,22 @@
       <c r="F48" s="1">
         <v>4371.84</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>48,0,0,4371.84</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="1"/>
+        <v>48,</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -1424,8 +2100,22 @@
       <c r="F49" s="1">
         <v>4462.92</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>49,0,0,4462.92</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="1"/>
+        <v>49,</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1444,8 +2134,22 @@
       <c r="F50" s="1">
         <v>4554</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="0"/>
+        <v>50,0,0,4554</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="1"/>
+        <v>50,</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -1464,8 +2168,22 @@
       <c r="F51" s="1">
         <v>4544.1000000000004</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="0"/>
+        <v>51,0,0,4544.1</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="1"/>
+        <v>51,</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -1484,8 +2202,22 @@
       <c r="F52" s="1">
         <v>4633.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>52,0,0,4633.2</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="1"/>
+        <v>52,</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -1504,8 +2236,22 @@
       <c r="F53" s="1">
         <v>4722.3</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="0"/>
+        <v>53,0,0,4722.3</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="1"/>
+        <v>53,</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -1524,8 +2270,22 @@
       <c r="F54" s="1">
         <v>4811.3999999999996</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="0"/>
+        <v>54,0,0,4811.4</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="1"/>
+        <v>54,</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -1544,8 +2304,22 @@
       <c r="F55" s="1">
         <v>4900.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="0"/>
+        <v>55,0,0,4900.5</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="1"/>
+        <v>55,</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -1564,8 +2338,22 @@
       <c r="F56" s="1">
         <v>4989.6000000000004</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="0"/>
+        <v>56,0,0,4989.6</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="1"/>
+        <v>56,</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -1584,8 +2372,22 @@
       <c r="F57" s="1">
         <v>5078.7</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="0"/>
+        <v>57,0,0,5078.7</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="1"/>
+        <v>57,</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -1604,8 +2406,22 @@
       <c r="F58" s="1">
         <v>5167.8</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="0"/>
+        <v>58,0,0,5167.8</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="1"/>
+        <v>58,</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -1624,8 +2440,22 @@
       <c r="F59" s="1">
         <v>5256.9</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="0"/>
+        <v>59,0,0,5256.9</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="1"/>
+        <v>59,</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -1644,8 +2474,22 @@
       <c r="F60" s="1">
         <v>5346</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="0"/>
+        <v>60,0,0,5346</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="1"/>
+        <v>60,</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -1664,8 +2508,22 @@
       <c r="F61" s="1">
         <v>5435.1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="0"/>
+        <v>61,0,0,5435.1</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="1"/>
+        <v>61,</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -1684,8 +2542,22 @@
       <c r="F62" s="1">
         <v>5524.2</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="0"/>
+        <v>62,0,0,5524.2</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="1"/>
+        <v>62,</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -1704,8 +2576,22 @@
       <c r="F63" s="1">
         <v>5613.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="0"/>
+        <v>63,0,0,5613.3</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="1"/>
+        <v>63,</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -1724,8 +2610,22 @@
       <c r="F64" s="1">
         <v>5702.4</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="0"/>
+        <v>64,0,0,5702.4</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="1"/>
+        <v>64,</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -1744,8 +2644,22 @@
       <c r="F65" s="1">
         <v>5791.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="0"/>
+        <v>65,0,0,5791.5</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="1"/>
+        <v>65,</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -1764,8 +2678,22 @@
       <c r="F66" s="1">
         <v>5880.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" ref="I66:I100" si="2">_xlfn.CONCAT(E66,H66,G66,H66,G66,H66,F66)</f>
+        <v>66,0,0,5880.6</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" ref="J66:J100" si="3">_xlfn.CONCAT(E66,H66)</f>
+        <v>66,</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -1784,8 +2712,22 @@
       <c r="F67" s="1">
         <v>5969.7</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="2"/>
+        <v>67,0,0,5969.7</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" si="3"/>
+        <v>67,</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -1804,8 +2746,22 @@
       <c r="F68" s="1">
         <v>6058.8</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="2"/>
+        <v>68,0,0,6058.8</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="3"/>
+        <v>68,</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -1824,8 +2780,22 @@
       <c r="F69" s="1">
         <v>6147.9</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="2"/>
+        <v>69,0,0,6147.9</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="3"/>
+        <v>69,</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -1844,8 +2814,22 @@
       <c r="F70" s="1">
         <v>6237</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="2"/>
+        <v>70,0,0,6237</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="3"/>
+        <v>70,</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -1864,8 +2848,22 @@
       <c r="F71" s="1">
         <v>6326.1</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="2"/>
+        <v>71,0,0,6326.1</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="3"/>
+        <v>71,</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -1884,8 +2882,22 @@
       <c r="F72" s="1">
         <v>6415.2</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="2"/>
+        <v>72,0,0,6415.2</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="3"/>
+        <v>72,</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -1904,8 +2916,22 @@
       <c r="F73" s="1">
         <v>6504.3</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="2"/>
+        <v>73,0,0,6504.3</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="3"/>
+        <v>73,</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -1924,8 +2950,22 @@
       <c r="F74" s="1">
         <v>6593.4</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="2"/>
+        <v>74,0,0,6593.4</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="3"/>
+        <v>74,</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -1944,8 +2984,22 @@
       <c r="F75" s="1">
         <v>6682.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="2"/>
+        <v>75,0,0,6682.5</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="3"/>
+        <v>75,</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -1964,8 +3018,22 @@
       <c r="F76" s="1">
         <v>6621.12</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="2"/>
+        <v>76,0,0,6621.12</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="3"/>
+        <v>76,</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -1984,8 +3052,22 @@
       <c r="F77" s="1">
         <v>6708.24</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="2"/>
+        <v>77,0,0,6708.24</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="3"/>
+        <v>77,</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -2004,8 +3086,22 @@
       <c r="F78" s="1">
         <v>6795.36</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="2"/>
+        <v>78,0,0,6795.36</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="3"/>
+        <v>78,</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -2024,8 +3120,22 @@
       <c r="F79" s="1">
         <v>6882.48</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>8</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="2"/>
+        <v>79,0,0,6882.48</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="3"/>
+        <v>79,</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -2044,8 +3154,22 @@
       <c r="F80" s="1">
         <v>6969.6</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>8</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="2"/>
+        <v>80,0,0,6969.6</v>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" si="3"/>
+        <v>80,</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -2064,8 +3188,22 @@
       <c r="F81" s="1">
         <v>7056.72</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="2"/>
+        <v>81,0,0,7056.72</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" si="3"/>
+        <v>81,</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -2084,8 +3222,22 @@
       <c r="F82" s="1">
         <v>7143.84</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="2"/>
+        <v>82,0,0,7143.84</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="3"/>
+        <v>82,</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -2104,8 +3256,22 @@
       <c r="F83" s="1">
         <v>7230.96</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="2"/>
+        <v>83,0,0,7230.96</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" si="3"/>
+        <v>83,</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -2124,8 +3290,22 @@
       <c r="F84" s="1">
         <v>7318.08</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="2"/>
+        <v>84,0,0,7318.08</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="3"/>
+        <v>84,</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -2144,8 +3324,22 @@
       <c r="F85" s="1">
         <v>7405.2</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="2"/>
+        <v>85,0,0,7405.2</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="3"/>
+        <v>85,</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -2164,8 +3358,22 @@
       <c r="F86" s="1">
         <v>7492.32</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="2"/>
+        <v>86,0,0,7492.32</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="3"/>
+        <v>86,</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -2184,8 +3392,22 @@
       <c r="F87" s="1">
         <v>7579.44</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="2"/>
+        <v>87,0,0,7579.44</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="3"/>
+        <v>87,</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -2204,8 +3426,22 @@
       <c r="F88" s="1">
         <v>7666.56</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>8</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="2"/>
+        <v>88,0,0,7666.56</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="3"/>
+        <v>88,</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -2224,8 +3460,22 @@
       <c r="F89" s="1">
         <v>7753.68</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="2"/>
+        <v>89,0,0,7753.68</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="3"/>
+        <v>89,</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -2244,8 +3494,22 @@
       <c r="F90" s="1">
         <v>7840.8</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>8</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="2"/>
+        <v>90,0,0,7840.8</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="3"/>
+        <v>90,</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -2264,8 +3528,22 @@
       <c r="F91" s="1">
         <v>7927.92</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="2"/>
+        <v>91,0,0,7927.92</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="3"/>
+        <v>91,</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -2284,8 +3562,22 @@
       <c r="F92" s="1">
         <v>8015.04</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92" t="s">
+        <v>8</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="2"/>
+        <v>92,0,0,8015.04</v>
+      </c>
+      <c r="J92" t="str">
+        <f t="shared" si="3"/>
+        <v>92,</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -2304,8 +3596,22 @@
       <c r="F93" s="1">
         <v>8102.16</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93" t="s">
+        <v>8</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="2"/>
+        <v>93,0,0,8102.16</v>
+      </c>
+      <c r="J93" t="str">
+        <f t="shared" si="3"/>
+        <v>93,</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -2324,8 +3630,22 @@
       <c r="F94" s="1">
         <v>8189.28</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="2"/>
+        <v>94,0,0,8189.28</v>
+      </c>
+      <c r="J94" t="str">
+        <f t="shared" si="3"/>
+        <v>94,</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -2344,8 +3664,22 @@
       <c r="F95" s="1">
         <v>8276.4</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="2"/>
+        <v>95,0,0,8276.4</v>
+      </c>
+      <c r="J95" t="str">
+        <f t="shared" si="3"/>
+        <v>95,</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -2364,8 +3698,22 @@
       <c r="F96" s="1">
         <v>8363.52</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>8</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="2"/>
+        <v>96,0,0,8363.52</v>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" si="3"/>
+        <v>96,</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -2384,8 +3732,22 @@
       <c r="F97" s="1">
         <v>8450.64</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="2"/>
+        <v>97,0,0,8450.64</v>
+      </c>
+      <c r="J97" t="str">
+        <f t="shared" si="3"/>
+        <v>97,</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -2404,8 +3766,22 @@
       <c r="F98" s="1">
         <v>8537.76</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>8</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="2"/>
+        <v>98,0,0,8537.76</v>
+      </c>
+      <c r="J98" t="str">
+        <f t="shared" si="3"/>
+        <v>98,</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -2424,8 +3800,22 @@
       <c r="F99" s="1">
         <v>8624.8799999999992</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>8</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="2"/>
+        <v>99,0,0,8624.88</v>
+      </c>
+      <c r="J99" t="str">
+        <f t="shared" si="3"/>
+        <v>99,</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -2443,6 +3833,20 @@
       </c>
       <c r="F100" s="1">
         <v>8712</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="2"/>
+        <v>100,0,0,8712</v>
+      </c>
+      <c r="J100" t="str">
+        <f t="shared" si="3"/>
+        <v>100,</v>
       </c>
     </row>
   </sheetData>
@@ -2454,10 +3858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1E8CEB-9ADD-46E8-8F0B-E1FCFCE30FE0}">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2466,7 +3870,7 @@
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2485,8 +3889,15 @@
       <c r="F1" s="1">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1">
+        <v>99</v>
+      </c>
+      <c r="H1">
+        <f>F1-G1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2505,8 +3916,15 @@
       <c r="F2" s="1">
         <v>218</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1">
+        <v>198</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H65" si="0">F2-G2</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2525,8 +3943,15 @@
       <c r="F3" s="1">
         <v>327</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <v>297</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2545,8 +3970,15 @@
       <c r="F4" s="1">
         <v>436</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1">
+        <v>396</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2565,8 +3997,15 @@
       <c r="F5" s="1">
         <v>545</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1">
+        <v>495</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2585,8 +4024,15 @@
       <c r="F6" s="1">
         <v>654</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <v>594</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2605,8 +4051,15 @@
       <c r="F7" s="1">
         <v>763</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <v>693</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2625,8 +4078,15 @@
       <c r="F8" s="1">
         <v>872</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1">
+        <v>792</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2645,8 +4105,15 @@
       <c r="F9" s="1">
         <v>981</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1">
+        <v>891</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2665,8 +4132,15 @@
       <c r="F10" s="1">
         <v>1090</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1">
+        <v>990</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2685,8 +4159,15 @@
       <c r="F11" s="1">
         <v>1139.05</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <v>1034.55</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2705,8 +4186,15 @@
       <c r="F12" s="1">
         <v>1242.5999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <v>1128.5999999999999</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2725,8 +4213,15 @@
       <c r="F13" s="1">
         <v>1346.15</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <v>1222.6500000000001</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2745,8 +4240,15 @@
       <c r="F14" s="1">
         <v>1449.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <v>1316.7</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2765,8 +4267,15 @@
       <c r="F15" s="1">
         <v>1553.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="1">
+        <v>1410.75</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2785,8 +4294,15 @@
       <c r="F16" s="1">
         <v>1656.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="1">
+        <v>1504.8</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2805,8 +4321,15 @@
       <c r="F17" s="1">
         <v>1760.35</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="1">
+        <v>1598.85</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>161.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2825,8 +4348,15 @@
       <c r="F18" s="1">
         <v>1863.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="1">
+        <v>1692.9</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2845,8 +4375,15 @@
       <c r="F19" s="1">
         <v>1967.45</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="1">
+        <v>1786.95</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>180.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2865,8 +4402,15 @@
       <c r="F20" s="1">
         <v>2071</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <v>1881</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2885,8 +4429,15 @@
       <c r="F21" s="1">
         <v>2174.5500000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="1">
+        <v>1975.05</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>199.50000000000023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2905,8 +4456,15 @@
       <c r="F22" s="1">
         <v>2278.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="1">
+        <v>2069.1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2925,8 +4483,15 @@
       <c r="F23" s="1">
         <v>2381.65</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="1">
+        <v>2163.15</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>218.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2945,8 +4510,15 @@
       <c r="F24" s="1">
         <v>2485.1999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="1">
+        <v>2257.1999999999998</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2965,8 +4537,15 @@
       <c r="F25" s="1">
         <v>2588.75</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="1">
+        <v>2351.25</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>237.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2985,8 +4564,15 @@
       <c r="F26" s="1">
         <v>2607.2800000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="1">
+        <v>2368.08</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>239.20000000000027</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -3005,8 +4591,15 @@
       <c r="F27" s="1">
         <v>2707.56</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="1">
+        <v>2459.16</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>248.40000000000009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -3025,8 +4618,15 @@
       <c r="F28" s="1">
         <v>2807.84</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="1">
+        <v>2550.2399999999998</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>257.60000000000036</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -3045,8 +4645,15 @@
       <c r="F29" s="1">
         <v>2908.12</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="1">
+        <v>2641.32</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>266.79999999999973</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -3065,8 +4672,15 @@
       <c r="F30" s="1">
         <v>3008.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="1">
+        <v>2732.4</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -3085,8 +4699,15 @@
       <c r="F31" s="1">
         <v>3108.68</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="1">
+        <v>2823.48</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>285.19999999999982</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -3105,8 +4726,15 @@
       <c r="F32" s="1">
         <v>3208.96</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="1">
+        <v>2914.56</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>294.40000000000009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -3125,8 +4753,15 @@
       <c r="F33" s="1">
         <v>3309.24</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="1">
+        <v>3005.64</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>303.59999999999991</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -3145,8 +4780,15 @@
       <c r="F34" s="1">
         <v>3409.52</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="1">
+        <v>3096.72</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>312.80000000000018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -3165,8 +4807,15 @@
       <c r="F35" s="1">
         <v>3509.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="1">
+        <v>3187.8</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -3185,8 +4834,15 @@
       <c r="F36" s="1">
         <v>3610.08</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="1">
+        <v>3278.88</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>331.19999999999982</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -3205,8 +4861,15 @@
       <c r="F37" s="1">
         <v>3710.36</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="1">
+        <v>3369.96</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>340.40000000000009</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -3225,8 +4888,15 @@
       <c r="F38" s="1">
         <v>3810.64</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="1">
+        <v>3461.04</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>349.59999999999991</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -3245,8 +4915,15 @@
       <c r="F39" s="1">
         <v>3910.92</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="1">
+        <v>3552.12</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>358.80000000000018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -3265,8 +4942,15 @@
       <c r="F40" s="1">
         <v>4011.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="1">
+        <v>3643.2</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -3285,8 +4969,15 @@
       <c r="F41" s="1">
         <v>4111.4799999999996</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="1">
+        <v>3734.28</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>377.19999999999936</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -3305,8 +4996,15 @@
       <c r="F42" s="1">
         <v>4211.76</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="1">
+        <v>3825.36</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>386.40000000000009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -3325,8 +5023,15 @@
       <c r="F43" s="1">
         <v>4312.04</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="1">
+        <v>3916.44</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>395.59999999999991</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -3345,8 +5050,15 @@
       <c r="F44" s="1">
         <v>4412.32</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="1">
+        <v>4007.52</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>404.79999999999973</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -3365,8 +5077,15 @@
       <c r="F45" s="1">
         <v>4512.6000000000004</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="1">
+        <v>4098.6000000000004</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -3385,8 +5104,15 @@
       <c r="F46" s="1">
         <v>4612.88</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="1">
+        <v>4189.68</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>423.19999999999982</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -3405,8 +5131,15 @@
       <c r="F47" s="1">
         <v>4713.16</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="1">
+        <v>4280.76</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>432.39999999999964</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -3425,8 +5158,15 @@
       <c r="F48" s="1">
         <v>4813.4399999999996</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="1">
+        <v>4371.84</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>441.59999999999945</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -3445,8 +5185,15 @@
       <c r="F49" s="1">
         <v>4913.72</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="1">
+        <v>4462.92</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>450.80000000000018</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -3465,8 +5212,15 @@
       <c r="F50" s="1">
         <v>5014</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="1">
+        <v>4554</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -3485,8 +5239,15 @@
       <c r="F51" s="1">
         <v>5003.1000000000004</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="1">
+        <v>4544.1000000000004</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -3505,8 +5266,15 @@
       <c r="F52" s="1">
         <v>5101.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="1">
+        <v>4633.2</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -3525,8 +5293,15 @@
       <c r="F53" s="1">
         <v>5199.3</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="1">
+        <v>4722.3</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -3545,8 +5320,15 @@
       <c r="F54" s="1">
         <v>5297.4</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="1">
+        <v>4811.3999999999996</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -3565,8 +5347,15 @@
       <c r="F55" s="1">
         <v>5395.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="1">
+        <v>4900.5</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -3585,8 +5374,15 @@
       <c r="F56" s="1">
         <v>5493.6</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="1">
+        <v>4989.6000000000004</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -3605,8 +5401,15 @@
       <c r="F57" s="1">
         <v>5591.7</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="1">
+        <v>5078.7</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -3625,8 +5428,15 @@
       <c r="F58" s="1">
         <v>5689.8</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="1">
+        <v>5167.8</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -3645,8 +5455,15 @@
       <c r="F59" s="1">
         <v>5787.9</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="1">
+        <v>5256.9</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -3665,8 +5482,15 @@
       <c r="F60" s="1">
         <v>5886</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="1">
+        <v>5346</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -3685,8 +5509,15 @@
       <c r="F61" s="1">
         <v>5984.1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="1">
+        <v>5435.1</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -3705,8 +5536,15 @@
       <c r="F62" s="1">
         <v>6082.2</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="1">
+        <v>5524.2</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -3725,8 +5563,15 @@
       <c r="F63" s="1">
         <v>6180.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="1">
+        <v>5613.3</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>567</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -3745,8 +5590,15 @@
       <c r="F64" s="1">
         <v>6278.4</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="1">
+        <v>5702.4</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -3765,8 +5617,15 @@
       <c r="F65" s="1">
         <v>6376.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="1">
+        <v>5791.5</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -3785,8 +5644,15 @@
       <c r="F66" s="1">
         <v>6474.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="1">
+        <v>5880.6</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ref="H66:H100" si="1">F66-G66</f>
+        <v>594</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -3805,8 +5671,15 @@
       <c r="F67" s="1">
         <v>6572.7</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="1">
+        <v>5969.7</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="1"/>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -3825,8 +5698,15 @@
       <c r="F68" s="1">
         <v>6670.8</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="1">
+        <v>6058.8</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="1"/>
+        <v>612</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -3845,8 +5725,15 @@
       <c r="F69" s="1">
         <v>6768.9</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="1">
+        <v>6147.9</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="1"/>
+        <v>621</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -3865,8 +5752,15 @@
       <c r="F70" s="1">
         <v>6867</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="1">
+        <v>6237</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="1"/>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -3885,8 +5779,15 @@
       <c r="F71" s="1">
         <v>6965.1</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="1">
+        <v>6326.1</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="1"/>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -3905,8 +5806,15 @@
       <c r="F72" s="1">
         <v>7063.2</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="1">
+        <v>6415.2</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="1"/>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -3925,8 +5833,15 @@
       <c r="F73" s="1">
         <v>7161.3</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="1">
+        <v>6504.3</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="1"/>
+        <v>657</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -3945,8 +5860,15 @@
       <c r="F74" s="1">
         <v>7259.4</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="1">
+        <v>6593.4</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="1"/>
+        <v>666</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -3965,8 +5887,15 @@
       <c r="F75" s="1">
         <v>7357.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="1">
+        <v>6682.5</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="1"/>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -3985,8 +5914,15 @@
       <c r="F76" s="1">
         <v>7289.92</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="1">
+        <v>6621.12</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="1"/>
+        <v>668.80000000000018</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -4005,8 +5941,15 @@
       <c r="F77" s="1">
         <v>7385.84</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="1">
+        <v>6708.24</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="1"/>
+        <v>677.60000000000036</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -4025,8 +5968,15 @@
       <c r="F78" s="1">
         <v>7481.76</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="1">
+        <v>6795.36</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="1"/>
+        <v>686.40000000000055</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -4045,8 +5995,15 @@
       <c r="F79" s="1">
         <v>7577.68</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="1">
+        <v>6882.48</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="1"/>
+        <v>695.20000000000073</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -4065,8 +6022,15 @@
       <c r="F80" s="1">
         <v>7673.6</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="1">
+        <v>6969.6</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="1"/>
+        <v>704</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -4085,8 +6049,15 @@
       <c r="F81" s="1">
         <v>7769.52</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="1">
+        <v>7056.72</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="1"/>
+        <v>712.80000000000018</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -4105,8 +6076,15 @@
       <c r="F82" s="1">
         <v>7865.44</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="1">
+        <v>7143.84</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="1"/>
+        <v>721.59999999999945</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -4125,8 +6103,15 @@
       <c r="F83" s="1">
         <v>7961.36</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="1">
+        <v>7230.96</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="1"/>
+        <v>730.39999999999964</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -4145,8 +6130,15 @@
       <c r="F84" s="1">
         <v>8057.28</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="1">
+        <v>7318.08</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="1"/>
+        <v>739.19999999999982</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -4165,8 +6157,15 @@
       <c r="F85" s="1">
         <v>8153.2</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="1">
+        <v>7405.2</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="1"/>
+        <v>748</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -4185,8 +6184,15 @@
       <c r="F86" s="1">
         <v>8249.1200000000008</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="1">
+        <v>7492.32</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="1"/>
+        <v>756.80000000000109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -4205,8 +6211,15 @@
       <c r="F87" s="1">
         <v>8345.0400000000009</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="1">
+        <v>7579.44</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="1"/>
+        <v>765.60000000000127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -4225,8 +6238,15 @@
       <c r="F88" s="1">
         <v>8440.9599999999991</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="1">
+        <v>7666.56</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="1"/>
+        <v>774.39999999999873</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -4245,8 +6265,15 @@
       <c r="F89" s="1">
         <v>8536.8799999999992</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="1">
+        <v>7753.68</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="1"/>
+        <v>783.19999999999891</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -4265,8 +6292,15 @@
       <c r="F90" s="1">
         <v>8632.7999999999993</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="1">
+        <v>7840.8</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="1"/>
+        <v>791.99999999999909</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -4285,8 +6319,15 @@
       <c r="F91" s="1">
         <v>8728.7199999999993</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" s="1">
+        <v>7927.92</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="1"/>
+        <v>800.79999999999927</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -4305,8 +6346,15 @@
       <c r="F92" s="1">
         <v>8824.64</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="1">
+        <v>8015.04</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="1"/>
+        <v>809.59999999999945</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -4325,8 +6373,15 @@
       <c r="F93" s="1">
         <v>8920.56</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="1">
+        <v>8102.16</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="1"/>
+        <v>818.39999999999964</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -4345,8 +6400,15 @@
       <c r="F94" s="1">
         <v>9016.48</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="1">
+        <v>8189.28</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="1"/>
+        <v>827.19999999999982</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -4365,8 +6427,15 @@
       <c r="F95" s="1">
         <v>9112.4</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" s="1">
+        <v>8276.4</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="1"/>
+        <v>836</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -4385,8 +6454,15 @@
       <c r="F96" s="1">
         <v>9208.32</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" s="1">
+        <v>8363.52</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="1"/>
+        <v>844.79999999999927</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -4405,8 +6481,15 @@
       <c r="F97" s="1">
         <v>9304.24</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" s="1">
+        <v>8450.64</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="1"/>
+        <v>853.60000000000036</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -4425,8 +6508,15 @@
       <c r="F98" s="1">
         <v>9400.16</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="1">
+        <v>8537.76</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="1"/>
+        <v>862.39999999999964</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -4445,8 +6535,15 @@
       <c r="F99" s="1">
         <v>9496.08</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="1">
+        <v>8624.8799999999992</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="1"/>
+        <v>871.20000000000073</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -4465,8 +6562,15 @@
       <c r="F100" s="1">
         <v>9592</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" s="1">
+        <v>8712</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="1"/>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F105" s="2"/>
     </row>
   </sheetData>
@@ -4477,10 +6581,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3462D05-694B-4DD5-9CB8-41B892D97ABC}">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4490,7 +6594,7 @@
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4509,8 +6613,15 @@
       <c r="F1" s="1">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1">
+        <v>99</v>
+      </c>
+      <c r="H1">
+        <f>F1-G1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4529,8 +6640,15 @@
       <c r="F2" s="1">
         <v>205</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1">
+        <v>198</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H65" si="0">F2-G2</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4549,8 +6667,15 @@
       <c r="F3" s="1">
         <v>304</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <v>297</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4569,8 +6694,15 @@
       <c r="F4" s="1">
         <v>403</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1">
+        <v>396</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -4589,8 +6721,15 @@
       <c r="F5" s="1">
         <v>502</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1">
+        <v>495</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -4609,8 +6748,15 @@
       <c r="F6" s="1">
         <v>601</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <v>594</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -4629,8 +6775,15 @@
       <c r="F7" s="1">
         <v>700</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <v>693</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -4649,8 +6802,15 @@
       <c r="F8" s="1">
         <v>799</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1">
+        <v>792</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -4669,8 +6829,15 @@
       <c r="F9" s="1">
         <v>898</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1">
+        <v>891</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -4689,8 +6856,15 @@
       <c r="F10" s="1">
         <v>997</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1">
+        <v>990</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -4709,8 +6883,15 @@
       <c r="F11" s="1">
         <v>1041.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <v>1034.55</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>6.6500000000000909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -4729,8 +6910,15 @@
       <c r="F12" s="1">
         <v>1135.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <v>1128.5999999999999</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>6.6500000000000909</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -4749,8 +6937,15 @@
       <c r="F13" s="1">
         <v>1229.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <v>1222.6500000000001</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>6.6499999999998636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -4769,8 +6964,15 @@
       <c r="F14" s="1">
         <v>1323.35</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <v>1316.7</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>6.6499999999998636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -4789,8 +6991,15 @@
       <c r="F15" s="1">
         <v>1417.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="1">
+        <v>1410.75</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>6.6500000000000909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -4809,8 +7018,15 @@
       <c r="F16" s="1">
         <v>1511.45</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="1">
+        <v>1504.8</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>6.6500000000000909</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -4829,8 +7045,15 @@
       <c r="F17" s="1">
         <v>1605.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="1">
+        <v>1598.85</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>6.6500000000000909</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -4849,8 +7072,15 @@
       <c r="F18" s="1">
         <v>1699.55</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="1">
+        <v>1692.9</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>6.6499999999998636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -4869,8 +7099,15 @@
       <c r="F19" s="1">
         <v>1793.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="1">
+        <v>1786.95</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>6.6499999999998636</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -4889,8 +7126,15 @@
       <c r="F20" s="1">
         <v>1887.65</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <v>1881</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>6.6500000000000909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -4909,8 +7153,15 @@
       <c r="F21" s="1">
         <v>1981.7</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="1">
+        <v>1975.05</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>6.6500000000000909</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -4929,8 +7180,15 @@
       <c r="F22" s="1">
         <v>2075.75</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="1">
+        <v>2069.1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>6.6500000000000909</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -4949,8 +7207,15 @@
       <c r="F23" s="1">
         <v>2169.8000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="1">
+        <v>2163.15</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>6.6500000000000909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -4969,8 +7234,15 @@
       <c r="F24" s="1">
         <v>2263.85</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="1">
+        <v>2257.1999999999998</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>6.6500000000000909</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -4989,8 +7261,15 @@
       <c r="F25" s="1">
         <v>2357.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="1">
+        <v>2351.25</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>6.6500000000000909</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -5009,8 +7288,15 @@
       <c r="F26" s="1">
         <v>2374.52</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="1">
+        <v>2368.08</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>6.4400000000000546</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -5029,8 +7315,15 @@
       <c r="F27" s="1">
         <v>2465.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="1">
+        <v>2459.16</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>6.4400000000000546</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -5049,8 +7342,15 @@
       <c r="F28" s="1">
         <v>2556.6799999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="1">
+        <v>2550.2399999999998</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>6.4400000000000546</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -5069,8 +7369,15 @@
       <c r="F29" s="1">
         <v>2647.76</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="1">
+        <v>2641.32</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>6.4400000000000546</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -5089,8 +7396,15 @@
       <c r="F30" s="1">
         <v>2738.84</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="1">
+        <v>2732.4</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>6.4400000000000546</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -5109,8 +7423,15 @@
       <c r="F31" s="1">
         <v>2829.92</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="1">
+        <v>2823.48</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>6.4400000000000546</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -5129,8 +7450,15 @@
       <c r="F32" s="1">
         <v>2921</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="1">
+        <v>2914.56</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>6.4400000000000546</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -5149,8 +7477,15 @@
       <c r="F33" s="1">
         <v>3012.08</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="1">
+        <v>3005.64</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>6.4400000000000546</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -5169,8 +7504,15 @@
       <c r="F34" s="1">
         <v>3103.16</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="1">
+        <v>3096.72</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>6.4400000000000546</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -5189,8 +7531,15 @@
       <c r="F35" s="1">
         <v>3194.24</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="1">
+        <v>3187.8</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>6.4399999999995998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -5209,8 +7558,15 @@
       <c r="F36" s="1">
         <v>3285.32</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="1">
+        <v>3278.88</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>6.4400000000000546</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -5229,8 +7585,15 @@
       <c r="F37" s="1">
         <v>3376.4</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="1">
+        <v>3369.96</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>6.4400000000000546</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -5249,8 +7612,15 @@
       <c r="F38" s="1">
         <v>3467.48</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="1">
+        <v>3461.04</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>6.4400000000000546</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -5269,8 +7639,15 @@
       <c r="F39" s="1">
         <v>3558.56</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="1">
+        <v>3552.12</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>6.4400000000000546</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -5289,8 +7666,15 @@
       <c r="F40" s="1">
         <v>3649.64</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="1">
+        <v>3643.2</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>6.4400000000000546</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -5309,8 +7693,15 @@
       <c r="F41" s="1">
         <v>3740.72</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="1">
+        <v>3734.28</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>6.4399999999995998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -5329,8 +7720,15 @@
       <c r="F42" s="1">
         <v>3831.8</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="1">
+        <v>3825.36</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>6.4400000000000546</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -5349,8 +7747,15 @@
       <c r="F43" s="1">
         <v>3922.88</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="1">
+        <v>3916.44</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>6.4400000000000546</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -5369,8 +7774,15 @@
       <c r="F44" s="1">
         <v>4013.96</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="1">
+        <v>4007.52</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>6.4400000000000546</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -5389,8 +7801,15 @@
       <c r="F45" s="1">
         <v>4105.04</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="1">
+        <v>4098.6000000000004</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>6.4399999999995998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -5409,8 +7828,15 @@
       <c r="F46" s="1">
         <v>4196.12</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="1">
+        <v>4189.68</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>6.4399999999995998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -5429,8 +7855,15 @@
       <c r="F47" s="1">
         <v>4287.2</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="1">
+        <v>4280.76</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>6.4399999999995998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -5449,8 +7882,15 @@
       <c r="F48" s="1">
         <v>4378.28</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="1">
+        <v>4371.84</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>6.4399999999995998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -5469,8 +7909,15 @@
       <c r="F49" s="1">
         <v>4469.3599999999997</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="1">
+        <v>4462.92</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>6.4399999999995998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -5489,8 +7936,15 @@
       <c r="F50" s="1">
         <v>4560.4399999999996</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="1">
+        <v>4554</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>6.4399999999995998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -5509,8 +7963,15 @@
       <c r="F51" s="1">
         <v>4550.3999999999996</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="1">
+        <v>4544.1000000000004</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>6.2999999999992724</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -5529,8 +7990,15 @@
       <c r="F52" s="1">
         <v>4639.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="1">
+        <v>4633.2</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>6.3000000000001819</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -5549,8 +8017,15 @@
       <c r="F53" s="1">
         <v>4728.6000000000004</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="1">
+        <v>4722.3</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>6.3000000000001819</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -5569,8 +8044,15 @@
       <c r="F54" s="1">
         <v>4817.7</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="1">
+        <v>4811.3999999999996</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>6.3000000000001819</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -5589,8 +8071,15 @@
       <c r="F55" s="1">
         <v>4906.8</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="1">
+        <v>4900.5</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>6.3000000000001819</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -5609,8 +8098,15 @@
       <c r="F56" s="1">
         <v>4995.8999999999996</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="1">
+        <v>4989.6000000000004</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>6.2999999999992724</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -5629,8 +8125,15 @@
       <c r="F57" s="1">
         <v>5085</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="1">
+        <v>5078.7</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>6.3000000000001819</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -5649,8 +8152,15 @@
       <c r="F58" s="1">
         <v>5174.1000000000004</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="1">
+        <v>5167.8</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>6.3000000000001819</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -5669,8 +8179,15 @@
       <c r="F59" s="1">
         <v>5263.2</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="1">
+        <v>5256.9</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>6.3000000000001819</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -5689,8 +8206,15 @@
       <c r="F60" s="1">
         <v>5352.3</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="1">
+        <v>5346</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>6.3000000000001819</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -5709,8 +8233,15 @@
       <c r="F61" s="1">
         <v>5441.4</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="1">
+        <v>5435.1</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>6.2999999999992724</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -5729,8 +8260,15 @@
       <c r="F62" s="1">
         <v>5530.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="1">
+        <v>5524.2</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>6.3000000000001819</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -5749,8 +8287,15 @@
       <c r="F63" s="1">
         <v>5619.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="1">
+        <v>5613.3</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>6.3000000000001819</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -5769,8 +8314,15 @@
       <c r="F64" s="1">
         <v>5708.7</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="1">
+        <v>5702.4</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>6.3000000000001819</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -5789,8 +8341,15 @@
       <c r="F65" s="1">
         <v>5797.8</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="1">
+        <v>5791.5</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>6.3000000000001819</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -5809,8 +8368,15 @@
       <c r="F66" s="1">
         <v>5886.9</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="1">
+        <v>5880.6</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ref="H66:H100" si="1">F66-G66</f>
+        <v>6.2999999999992724</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -5829,8 +8395,15 @@
       <c r="F67" s="1">
         <v>5976</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="1">
+        <v>5969.7</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="1"/>
+        <v>6.3000000000001819</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -5849,8 +8422,15 @@
       <c r="F68" s="1">
         <v>6065.1</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="1">
+        <v>6058.8</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="1"/>
+        <v>6.3000000000001819</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -5869,8 +8449,15 @@
       <c r="F69" s="1">
         <v>6154.2</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="1">
+        <v>6147.9</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="1"/>
+        <v>6.3000000000001819</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -5889,8 +8476,15 @@
       <c r="F70" s="1">
         <v>6243.3</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="1">
+        <v>6237</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="1"/>
+        <v>6.3000000000001819</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -5909,8 +8503,15 @@
       <c r="F71" s="1">
         <v>6332.4</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="1">
+        <v>6326.1</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="1"/>
+        <v>6.2999999999992724</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -5929,8 +8530,15 @@
       <c r="F72" s="1">
         <v>6421.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="1">
+        <v>6415.2</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="1"/>
+        <v>6.3000000000001819</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -5949,8 +8557,15 @@
       <c r="F73" s="1">
         <v>6510.6</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="1">
+        <v>6504.3</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="1"/>
+        <v>6.3000000000001819</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -5969,8 +8584,15 @@
       <c r="F74" s="1">
         <v>6599.7</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="1">
+        <v>6593.4</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="1"/>
+        <v>6.3000000000001819</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -5989,8 +8611,15 @@
       <c r="F75" s="1">
         <v>6688.8</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="1">
+        <v>6682.5</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="1"/>
+        <v>6.3000000000001819</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -6009,8 +8638,15 @@
       <c r="F76" s="1">
         <v>6627.28</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="1">
+        <v>6621.12</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="1"/>
+        <v>6.1599999999998545</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -6029,8 +8665,15 @@
       <c r="F77" s="1">
         <v>6714.4</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="1">
+        <v>6708.24</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="1"/>
+        <v>6.1599999999998545</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -6049,8 +8692,15 @@
       <c r="F78" s="1">
         <v>6801.52</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="1">
+        <v>6795.36</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="1"/>
+        <v>6.160000000000764</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -6069,8 +8719,15 @@
       <c r="F79" s="1">
         <v>6888.64</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="1">
+        <v>6882.48</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="1"/>
+        <v>6.160000000000764</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -6089,8 +8746,15 @@
       <c r="F80" s="1">
         <v>6975.76</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="1">
+        <v>6969.6</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="1"/>
+        <v>6.1599999999998545</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -6109,8 +8773,15 @@
       <c r="F81" s="1">
         <v>7062.88</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="1">
+        <v>7056.72</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="1"/>
+        <v>6.1599999999998545</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -6129,8 +8800,15 @@
       <c r="F82" s="1">
         <v>7150</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="1">
+        <v>7143.84</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="1"/>
+        <v>6.1599999999998545</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -6149,8 +8827,15 @@
       <c r="F83" s="1">
         <v>7237.12</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="1">
+        <v>7230.96</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="1"/>
+        <v>6.1599999999998545</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -6169,8 +8854,15 @@
       <c r="F84" s="1">
         <v>7324.24</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="1">
+        <v>7318.08</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="1"/>
+        <v>6.1599999999998545</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -6189,8 +8881,15 @@
       <c r="F85" s="1">
         <v>7411.36</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="1">
+        <v>7405.2</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="1"/>
+        <v>6.1599999999998545</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -6209,8 +8908,15 @@
       <c r="F86" s="1">
         <v>7498.48</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="1">
+        <v>7492.32</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="1"/>
+        <v>6.1599999999998545</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -6229,8 +8935,15 @@
       <c r="F87" s="1">
         <v>7585.6</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="1">
+        <v>7579.44</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="1"/>
+        <v>6.160000000000764</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -6249,8 +8962,15 @@
       <c r="F88" s="1">
         <v>7672.72</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="1">
+        <v>7666.56</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="1"/>
+        <v>6.1599999999998545</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -6269,8 +8989,15 @@
       <c r="F89" s="1">
         <v>7759.84</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="1">
+        <v>7753.68</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="1"/>
+        <v>6.1599999999998545</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -6289,8 +9016,15 @@
       <c r="F90" s="1">
         <v>7846.96</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="1">
+        <v>7840.8</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="1"/>
+        <v>6.1599999999998545</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -6309,8 +9043,15 @@
       <c r="F91" s="1">
         <v>7934.08</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" s="1">
+        <v>7927.92</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="1"/>
+        <v>6.1599999999998545</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -6329,8 +9070,15 @@
       <c r="F92" s="1">
         <v>8021.2</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="1">
+        <v>8015.04</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="1"/>
+        <v>6.1599999999998545</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -6349,8 +9097,15 @@
       <c r="F93" s="1">
         <v>8108.32</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="1">
+        <v>8102.16</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="1"/>
+        <v>6.1599999999998545</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -6369,8 +9124,15 @@
       <c r="F94" s="1">
         <v>8195.44</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="1">
+        <v>8189.28</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="1"/>
+        <v>6.160000000000764</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -6389,8 +9151,15 @@
       <c r="F95" s="1">
         <v>8282.56</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" s="1">
+        <v>8276.4</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="1"/>
+        <v>6.1599999999998545</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -6409,8 +9178,15 @@
       <c r="F96" s="1">
         <v>8369.68</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" s="1">
+        <v>8363.52</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="1"/>
+        <v>6.1599999999998545</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -6429,8 +9205,15 @@
       <c r="F97" s="1">
         <v>8456.7999999999993</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" s="1">
+        <v>8450.64</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="1"/>
+        <v>6.1599999999998545</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -6449,8 +9232,15 @@
       <c r="F98" s="1">
         <v>8543.92</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="1">
+        <v>8537.76</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="1"/>
+        <v>6.1599999999998545</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -6469,8 +9259,15 @@
       <c r="F99" s="1">
         <v>8631.0400000000009</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="1">
+        <v>8624.8799999999992</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="1"/>
+        <v>6.1600000000016735</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -6489,8 +9286,15 @@
       <c r="F100" s="1">
         <v>8718.16</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" s="1">
+        <v>8712</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="1"/>
+        <v>6.1599999999998545</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F105" s="2"/>
     </row>
   </sheetData>
@@ -6501,10 +9305,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF03578-962D-4957-AF16-23A87527FBD1}">
-  <dimension ref="A1:G203"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104:G203"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6515,7 +9319,7 @@
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6537,8 +9341,15 @@
       <c r="G1" s="1">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1">
+        <v>99</v>
+      </c>
+      <c r="I1">
+        <f>G1-H1</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6560,8 +9371,15 @@
       <c r="G2" s="1">
         <v>226</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <v>198</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I65" si="0">G2-H2</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -6583,8 +9401,15 @@
       <c r="G3" s="1">
         <v>325</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>297</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -6606,8 +9431,15 @@
       <c r="G4" s="1">
         <v>424</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <v>396</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -6629,8 +9461,15 @@
       <c r="G5" s="1">
         <v>523</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <v>495</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -6652,8 +9491,15 @@
       <c r="G6" s="1">
         <v>622</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <v>594</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -6675,8 +9521,15 @@
       <c r="G7" s="1">
         <v>721</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <v>693</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -6698,8 +9551,15 @@
       <c r="G8" s="1">
         <v>820</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <v>792</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -6721,8 +9581,15 @@
       <c r="G9" s="1">
         <v>919</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <v>891</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -6744,8 +9611,15 @@
       <c r="G10" s="1">
         <v>1018</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <v>990</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -6767,8 +9641,15 @@
       <c r="G11" s="1">
         <v>1061.1500000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <v>1034.55</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>26.600000000000136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -6790,8 +9671,15 @@
       <c r="G12" s="1">
         <v>1155.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1">
+        <v>1128.5999999999999</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>26.600000000000136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -6813,8 +9701,15 @@
       <c r="G13" s="1">
         <v>1249.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
+        <v>1222.6500000000001</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>26.599999999999909</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -6836,8 +9731,15 @@
       <c r="G14" s="1">
         <v>1343.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1">
+        <v>1316.7</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>26.599999999999909</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -6859,8 +9761,15 @@
       <c r="G15" s="1">
         <v>1437.35</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="1">
+        <v>1410.75</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>26.599999999999909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -6882,8 +9791,15 @@
       <c r="G16" s="1">
         <v>1531.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <v>1504.8</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>26.600000000000136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -6905,8 +9821,15 @@
       <c r="G17" s="1">
         <v>1625.45</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <v>1598.85</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>26.600000000000136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -6928,8 +9851,15 @@
       <c r="G18" s="1">
         <v>1719.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <v>1692.9</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>26.599999999999909</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -6951,8 +9881,15 @@
       <c r="G19" s="1">
         <v>1813.55</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="1">
+        <v>1786.95</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>26.599999999999909</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -6974,8 +9911,15 @@
       <c r="G20" s="1">
         <v>1907.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="1">
+        <v>1881</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>26.599999999999909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -6997,8 +9941,15 @@
       <c r="G21" s="1">
         <v>2001.65</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
+        <v>1975.05</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>26.600000000000136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -7020,8 +9971,15 @@
       <c r="G22" s="1">
         <v>2095.6999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="1">
+        <v>2069.1</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>26.599999999999909</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -7043,8 +10001,15 @@
       <c r="G23" s="1">
         <v>2189.75</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="1">
+        <v>2163.15</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>26.599999999999909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -7066,8 +10031,15 @@
       <c r="G24" s="1">
         <v>2283.8000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="1">
+        <v>2257.1999999999998</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>26.600000000000364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -7089,8 +10061,15 @@
       <c r="G25" s="1">
         <v>2377.85</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="1">
+        <v>2351.25</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>26.599999999999909</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -7112,8 +10091,15 @@
       <c r="G26" s="1">
         <v>2393.84</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="1">
+        <v>2368.08</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>25.760000000000218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -7135,8 +10121,15 @@
       <c r="G27" s="1">
         <v>2484.92</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="1">
+        <v>2459.16</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>25.760000000000218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -7158,8 +10151,15 @@
       <c r="G28" s="1">
         <v>2576</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="1">
+        <v>2550.2399999999998</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>25.760000000000218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -7181,8 +10181,15 @@
       <c r="G29" s="1">
         <v>2667.08</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="1">
+        <v>2641.32</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>25.759999999999764</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -7204,8 +10211,15 @@
       <c r="G30" s="1">
         <v>2758.16</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="1">
+        <v>2732.4</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>25.759999999999764</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -7227,8 +10241,15 @@
       <c r="G31" s="1">
         <v>2849.24</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="1">
+        <v>2823.48</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>25.759999999999764</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -7250,8 +10271,15 @@
       <c r="G32" s="1">
         <v>2940.32</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="1">
+        <v>2914.56</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>25.760000000000218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -7273,8 +10301,15 @@
       <c r="G33" s="1">
         <v>3031.4</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="1">
+        <v>3005.64</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>25.760000000000218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -7296,8 +10331,15 @@
       <c r="G34" s="1">
         <v>3122.48</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="1">
+        <v>3096.72</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>25.760000000000218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -7319,8 +10361,15 @@
       <c r="G35" s="1">
         <v>3213.56</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="1">
+        <v>3187.8</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>25.759999999999764</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -7342,8 +10391,15 @@
       <c r="G36" s="1">
         <v>3304.64</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="1">
+        <v>3278.88</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>25.759999999999764</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -7365,8 +10421,15 @@
       <c r="G37" s="1">
         <v>3395.72</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="1">
+        <v>3369.96</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>25.759999999999764</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -7388,8 +10451,15 @@
       <c r="G38" s="1">
         <v>3486.8</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="1">
+        <v>3461.04</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>25.760000000000218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -7411,8 +10481,15 @@
       <c r="G39" s="1">
         <v>3577.88</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="1">
+        <v>3552.12</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>25.760000000000218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -7434,8 +10511,15 @@
       <c r="G40" s="1">
         <v>3668.96</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="1">
+        <v>3643.2</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>25.760000000000218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -7457,8 +10541,15 @@
       <c r="G41" s="1">
         <v>3760.04</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="1">
+        <v>3734.28</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>25.759999999999764</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -7480,8 +10571,15 @@
       <c r="G42" s="1">
         <v>3851.12</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="1">
+        <v>3825.36</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>25.759999999999764</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -7503,8 +10601,15 @@
       <c r="G43" s="1">
         <v>3942.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="1">
+        <v>3916.44</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>25.759999999999764</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -7526,8 +10631,15 @@
       <c r="G44" s="1">
         <v>4033.28</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="1">
+        <v>4007.52</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>25.760000000000218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -7549,8 +10661,15 @@
       <c r="G45" s="1">
         <v>4124.3599999999997</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="1">
+        <v>4098.6000000000004</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>25.759999999999309</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -7572,8 +10691,15 @@
       <c r="G46" s="1">
         <v>4215.4399999999996</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="1">
+        <v>4189.68</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>25.759999999999309</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -7595,8 +10721,15 @@
       <c r="G47" s="1">
         <v>4306.5200000000004</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="1">
+        <v>4280.76</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>25.760000000000218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -7618,8 +10751,15 @@
       <c r="G48" s="1">
         <v>4397.6000000000004</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="1">
+        <v>4371.84</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>25.760000000000218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -7641,8 +10781,15 @@
       <c r="G49" s="1">
         <v>4488.68</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="1">
+        <v>4462.92</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>25.760000000000218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -7664,8 +10811,15 @@
       <c r="G50" s="1">
         <v>4579.76</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="1">
+        <v>4554</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>25.760000000000218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -7687,8 +10841,15 @@
       <c r="G51" s="1">
         <v>4569.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="1">
+        <v>4544.1000000000004</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>25.199999999999818</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -7710,8 +10871,15 @@
       <c r="G52" s="1">
         <v>4658.3999999999996</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="1">
+        <v>4633.2</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>25.199999999999818</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -7733,8 +10901,15 @@
       <c r="G53" s="1">
         <v>4747.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="1">
+        <v>4722.3</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>25.199999999999818</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -7756,8 +10931,15 @@
       <c r="G54" s="1">
         <v>4836.6000000000004</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="1">
+        <v>4811.3999999999996</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>25.200000000000728</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -7779,8 +10961,15 @@
       <c r="G55" s="1">
         <v>4925.7</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="1">
+        <v>4900.5</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>25.199999999999818</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -7802,8 +10991,15 @@
       <c r="G56" s="1">
         <v>5014.8</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="1">
+        <v>4989.6000000000004</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>25.199999999999818</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -7825,8 +11021,15 @@
       <c r="G57" s="1">
         <v>5103.8999999999996</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="1">
+        <v>5078.7</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>25.199999999999818</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -7848,8 +11051,15 @@
       <c r="G58" s="1">
         <v>5193</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="1">
+        <v>5167.8</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>25.199999999999818</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -7871,8 +11081,15 @@
       <c r="G59" s="1">
         <v>5282.1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="1">
+        <v>5256.9</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>25.200000000000728</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -7894,8 +11111,15 @@
       <c r="G60" s="1">
         <v>5371.2</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="1">
+        <v>5346</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>25.199999999999818</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -7917,8 +11141,15 @@
       <c r="G61" s="1">
         <v>5460.3</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="1">
+        <v>5435.1</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>25.199999999999818</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -7940,8 +11171,15 @@
       <c r="G62" s="1">
         <v>5549.4</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="1">
+        <v>5524.2</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>25.199999999999818</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -7963,8 +11201,15 @@
       <c r="G63" s="1">
         <v>5638.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="1">
+        <v>5613.3</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>25.199999999999818</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -7986,8 +11231,15 @@
       <c r="G64" s="1">
         <v>5727.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="1">
+        <v>5702.4</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>25.200000000000728</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -8009,8 +11261,15 @@
       <c r="G65" s="1">
         <v>5816.7</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="1">
+        <v>5791.5</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>25.199999999999818</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -8032,8 +11291,15 @@
       <c r="G66" s="1">
         <v>5905.8</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="1">
+        <v>5880.6</v>
+      </c>
+      <c r="I66">
+        <f t="shared" ref="I66:I100" si="1">G66-H66</f>
+        <v>25.199999999999818</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -8055,8 +11321,15 @@
       <c r="G67" s="1">
         <v>5994.9</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="1">
+        <v>5969.7</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="1"/>
+        <v>25.199999999999818</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -8078,8 +11351,15 @@
       <c r="G68" s="1">
         <v>6084</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="1">
+        <v>6058.8</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="1"/>
+        <v>25.199999999999818</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -8101,8 +11381,15 @@
       <c r="G69" s="1">
         <v>6173.1</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="1">
+        <v>6147.9</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="1"/>
+        <v>25.200000000000728</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -8124,8 +11411,15 @@
       <c r="G70" s="1">
         <v>6262.2</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="1">
+        <v>6237</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="1"/>
+        <v>25.199999999999818</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -8147,8 +11441,15 @@
       <c r="G71" s="1">
         <v>6351.3</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="1">
+        <v>6326.1</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="1"/>
+        <v>25.199999999999818</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -8170,8 +11471,15 @@
       <c r="G72" s="1">
         <v>6440.4</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="1">
+        <v>6415.2</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="1"/>
+        <v>25.199999999999818</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -8193,8 +11501,15 @@
       <c r="G73" s="1">
         <v>6529.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="1">
+        <v>6504.3</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="1"/>
+        <v>25.199999999999818</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -8216,8 +11531,15 @@
       <c r="G74" s="1">
         <v>6618.6</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="1">
+        <v>6593.4</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="1"/>
+        <v>25.200000000000728</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -8239,8 +11561,15 @@
       <c r="G75" s="1">
         <v>6707.7</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="1">
+        <v>6682.5</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="1"/>
+        <v>25.199999999999818</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -8262,8 +11591,15 @@
       <c r="G76" s="1">
         <v>6645.76</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="1">
+        <v>6621.12</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="1"/>
+        <v>24.640000000000327</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -8285,8 +11621,15 @@
       <c r="G77" s="1">
         <v>6732.88</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="1">
+        <v>6708.24</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="1"/>
+        <v>24.640000000000327</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -8308,8 +11651,15 @@
       <c r="G78" s="1">
         <v>6820</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="1">
+        <v>6795.36</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="1"/>
+        <v>24.640000000000327</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -8331,8 +11681,15 @@
       <c r="G79" s="1">
         <v>6907.12</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="1">
+        <v>6882.48</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="1"/>
+        <v>24.640000000000327</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -8354,8 +11711,15 @@
       <c r="G80" s="1">
         <v>6994.24</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="1">
+        <v>6969.6</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="1"/>
+        <v>24.639999999999418</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -8377,8 +11741,15 @@
       <c r="G81" s="1">
         <v>7081.36</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="1">
+        <v>7056.72</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="1"/>
+        <v>24.639999999999418</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -8400,8 +11771,15 @@
       <c r="G82" s="1">
         <v>7168.48</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="1">
+        <v>7143.84</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="1"/>
+        <v>24.639999999999418</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -8423,8 +11801,15 @@
       <c r="G83" s="1">
         <v>7255.6</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="1">
+        <v>7230.96</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="1"/>
+        <v>24.640000000000327</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -8446,8 +11831,15 @@
       <c r="G84" s="1">
         <v>7342.72</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="1">
+        <v>7318.08</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="1"/>
+        <v>24.640000000000327</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -8469,8 +11861,15 @@
       <c r="G85" s="1">
         <v>7429.84</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="1">
+        <v>7405.2</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="1"/>
+        <v>24.640000000000327</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -8492,8 +11891,15 @@
       <c r="G86" s="1">
         <v>7516.96</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="1">
+        <v>7492.32</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="1"/>
+        <v>24.640000000000327</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -8515,8 +11921,15 @@
       <c r="G87" s="1">
         <v>7604.08</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="1">
+        <v>7579.44</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="1"/>
+        <v>24.640000000000327</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -8538,8 +11951,15 @@
       <c r="G88" s="1">
         <v>7691.2</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="1">
+        <v>7666.56</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="1"/>
+        <v>24.639999999999418</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -8561,8 +11981,15 @@
       <c r="G89" s="1">
         <v>7778.32</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="1">
+        <v>7753.68</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="1"/>
+        <v>24.639999999999418</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -8584,8 +12011,15 @@
       <c r="G90" s="1">
         <v>7865.44</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="1">
+        <v>7840.8</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="1"/>
+        <v>24.639999999999418</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -8607,8 +12041,15 @@
       <c r="G91" s="1">
         <v>7952.56</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="1">
+        <v>7927.92</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="1"/>
+        <v>24.640000000000327</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -8630,8 +12071,15 @@
       <c r="G92" s="1">
         <v>8039.68</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="1">
+        <v>8015.04</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="1"/>
+        <v>24.640000000000327</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -8653,8 +12101,15 @@
       <c r="G93" s="1">
         <v>8126.8</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="1">
+        <v>8102.16</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="1"/>
+        <v>24.640000000000327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -8676,8 +12131,15 @@
       <c r="G94" s="1">
         <v>8213.92</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="1">
+        <v>8189.28</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="1"/>
+        <v>24.640000000000327</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -8699,8 +12161,15 @@
       <c r="G95" s="1">
         <v>8301.0400000000009</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="1">
+        <v>8276.4</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="1"/>
+        <v>24.640000000001237</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -8722,8 +12191,15 @@
       <c r="G96" s="1">
         <v>8388.16</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="1">
+        <v>8363.52</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="1"/>
+        <v>24.639999999999418</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -8745,8 +12221,15 @@
       <c r="G97" s="1">
         <v>8475.2800000000007</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="1">
+        <v>8450.64</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="1"/>
+        <v>24.640000000001237</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -8768,8 +12251,15 @@
       <c r="G98" s="1">
         <v>8562.4</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="1">
+        <v>8537.76</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="1"/>
+        <v>24.639999999999418</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -8791,8 +12281,15 @@
       <c r="G99" s="1">
         <v>8649.52</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="1">
+        <v>8624.8799999999992</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="1"/>
+        <v>24.640000000001237</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -8814,8 +12311,15 @@
       <c r="G100" s="1">
         <v>8736.64</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="1">
+        <v>8712</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="1"/>
+        <v>24.639999999999418</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -8837,8 +12341,15 @@
       <c r="G104" s="1">
         <v>182</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" s="1">
+        <v>99</v>
+      </c>
+      <c r="I104">
+        <f>G104-H104</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -8860,8 +12371,15 @@
       <c r="G105" s="1">
         <v>281</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" s="1">
+        <v>198</v>
+      </c>
+      <c r="I105">
+        <f t="shared" ref="I105:I168" si="2">G105-H105</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -8883,8 +12401,15 @@
       <c r="G106" s="1">
         <v>380</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" s="1">
+        <v>297</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -8906,8 +12431,15 @@
       <c r="G107" s="1">
         <v>479</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" s="1">
+        <v>396</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -8929,8 +12461,15 @@
       <c r="G108" s="1">
         <v>578</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" s="1">
+        <v>495</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -8952,8 +12491,15 @@
       <c r="G109" s="1">
         <v>677</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" s="1">
+        <v>594</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -8975,8 +12521,15 @@
       <c r="G110" s="1">
         <v>776</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" s="1">
+        <v>693</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -8998,8 +12551,15 @@
       <c r="G111" s="1">
         <v>875</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" s="1">
+        <v>792</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -9021,8 +12581,15 @@
       <c r="G112" s="1">
         <v>974</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" s="1">
+        <v>891</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -9044,8 +12611,15 @@
       <c r="G113" s="1">
         <v>1073</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" s="1">
+        <v>990</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -9067,8 +12641,15 @@
       <c r="G114" s="1">
         <v>1113.4000000000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" s="1">
+        <v>1034.55</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="2"/>
+        <v>78.850000000000136</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -9090,8 +12671,15 @@
       <c r="G115" s="1">
         <v>1207.45</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" s="1">
+        <v>1128.5999999999999</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="2"/>
+        <v>78.850000000000136</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -9113,8 +12701,15 @@
       <c r="G116" s="1">
         <v>1301.5</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" s="1">
+        <v>1222.6500000000001</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="2"/>
+        <v>78.849999999999909</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -9136,8 +12731,15 @@
       <c r="G117" s="1">
         <v>1395.55</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" s="1">
+        <v>1316.7</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="2"/>
+        <v>78.849999999999909</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -9159,8 +12761,15 @@
       <c r="G118" s="1">
         <v>1489.6</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" s="1">
+        <v>1410.75</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="2"/>
+        <v>78.849999999999909</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -9182,8 +12791,15 @@
       <c r="G119" s="1">
         <v>1583.65</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" s="1">
+        <v>1504.8</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="2"/>
+        <v>78.850000000000136</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -9205,8 +12821,15 @@
       <c r="G120" s="1">
         <v>1677.7</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120" s="1">
+        <v>1598.85</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="2"/>
+        <v>78.850000000000136</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -9228,8 +12851,15 @@
       <c r="G121" s="1">
         <v>1771.75</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121" s="1">
+        <v>1692.9</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="2"/>
+        <v>78.849999999999909</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -9251,8 +12881,15 @@
       <c r="G122" s="1">
         <v>1865.8</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122" s="1">
+        <v>1786.95</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="2"/>
+        <v>78.849999999999909</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -9274,8 +12911,15 @@
       <c r="G123" s="1">
         <v>1959.85</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123" s="1">
+        <v>1881</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="2"/>
+        <v>78.849999999999909</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -9297,8 +12941,15 @@
       <c r="G124" s="1">
         <v>2053.9</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124" s="1">
+        <v>1975.05</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="2"/>
+        <v>78.850000000000136</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -9320,8 +12971,15 @@
       <c r="G125" s="1">
         <v>2147.9499999999998</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125" s="1">
+        <v>2069.1</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="2"/>
+        <v>78.849999999999909</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -9343,8 +13001,15 @@
       <c r="G126" s="1">
         <v>2242</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126" s="1">
+        <v>2163.15</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="2"/>
+        <v>78.849999999999909</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -9366,8 +13031,15 @@
       <c r="G127" s="1">
         <v>2336.0500000000002</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127" s="1">
+        <v>2257.1999999999998</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="2"/>
+        <v>78.850000000000364</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -9389,8 +13061,15 @@
       <c r="G128" s="1">
         <v>2430.1</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128" s="1">
+        <v>2351.25</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="2"/>
+        <v>78.849999999999909</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -9412,8 +13091,15 @@
       <c r="G129" s="1">
         <v>2444.44</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129" s="1">
+        <v>2368.08</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="2"/>
+        <v>76.360000000000127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -9435,8 +13121,15 @@
       <c r="G130" s="1">
         <v>2535.52</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130" s="1">
+        <v>2459.16</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="2"/>
+        <v>76.360000000000127</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -9458,8 +13151,15 @@
       <c r="G131" s="1">
         <v>2626.6</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131" s="1">
+        <v>2550.2399999999998</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="2"/>
+        <v>76.360000000000127</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -9481,8 +13181,15 @@
       <c r="G132" s="1">
         <v>2717.68</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132" s="1">
+        <v>2641.32</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="2"/>
+        <v>76.359999999999673</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -9504,8 +13211,15 @@
       <c r="G133" s="1">
         <v>2808.76</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133" s="1">
+        <v>2732.4</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="2"/>
+        <v>76.360000000000127</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -9527,8 +13241,15 @@
       <c r="G134" s="1">
         <v>2899.84</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134" s="1">
+        <v>2823.48</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="2"/>
+        <v>76.360000000000127</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -9550,8 +13271,15 @@
       <c r="G135" s="1">
         <v>2990.92</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135" s="1">
+        <v>2914.56</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="2"/>
+        <v>76.360000000000127</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -9573,8 +13301,15 @@
       <c r="G136" s="1">
         <v>3082</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136" s="1">
+        <v>3005.64</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="2"/>
+        <v>76.360000000000127</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -9596,8 +13331,15 @@
       <c r="G137" s="1">
         <v>3173.08</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137" s="1">
+        <v>3096.72</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="2"/>
+        <v>76.360000000000127</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -9619,8 +13361,15 @@
       <c r="G138" s="1">
         <v>3264.16</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138" s="1">
+        <v>3187.8</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="2"/>
+        <v>76.359999999999673</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -9642,8 +13391,15 @@
       <c r="G139" s="1">
         <v>3355.24</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139" s="1">
+        <v>3278.88</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="2"/>
+        <v>76.359999999999673</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -9665,8 +13421,15 @@
       <c r="G140" s="1">
         <v>3446.32</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140" s="1">
+        <v>3369.96</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="2"/>
+        <v>76.360000000000127</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -9688,8 +13451,15 @@
       <c r="G141" s="1">
         <v>3537.4</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141" s="1">
+        <v>3461.04</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="2"/>
+        <v>76.360000000000127</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -9711,8 +13481,15 @@
       <c r="G142" s="1">
         <v>3628.48</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142" s="1">
+        <v>3552.12</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="2"/>
+        <v>76.360000000000127</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -9734,8 +13511,15 @@
       <c r="G143" s="1">
         <v>3719.56</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143" s="1">
+        <v>3643.2</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="2"/>
+        <v>76.360000000000127</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -9757,8 +13541,15 @@
       <c r="G144" s="1">
         <v>3810.64</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H144" s="1">
+        <v>3734.28</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="2"/>
+        <v>76.359999999999673</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -9780,8 +13571,15 @@
       <c r="G145" s="1">
         <v>3901.72</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H145" s="1">
+        <v>3825.36</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="2"/>
+        <v>76.359999999999673</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -9803,8 +13601,15 @@
       <c r="G146" s="1">
         <v>3992.8</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H146" s="1">
+        <v>3916.44</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="2"/>
+        <v>76.360000000000127</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -9826,8 +13631,15 @@
       <c r="G147" s="1">
         <v>4083.88</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H147" s="1">
+        <v>4007.52</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="2"/>
+        <v>76.360000000000127</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -9849,8 +13661,15 @@
       <c r="G148" s="1">
         <v>4174.96</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H148" s="1">
+        <v>4098.6000000000004</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="2"/>
+        <v>76.359999999999673</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -9872,8 +13691,15 @@
       <c r="G149" s="1">
         <v>4266.04</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H149" s="1">
+        <v>4189.68</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="2"/>
+        <v>76.359999999999673</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -9895,8 +13721,15 @@
       <c r="G150" s="1">
         <v>4357.12</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H150" s="1">
+        <v>4280.76</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="2"/>
+        <v>76.359999999999673</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -9918,8 +13751,15 @@
       <c r="G151" s="1">
         <v>4448.2</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H151" s="1">
+        <v>4371.84</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="2"/>
+        <v>76.359999999999673</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -9941,8 +13781,15 @@
       <c r="G152" s="1">
         <v>4539.28</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H152" s="1">
+        <v>4462.92</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="2"/>
+        <v>76.359999999999673</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -9964,8 +13811,15 @@
       <c r="G153" s="1">
         <v>4630.3599999999997</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H153" s="1">
+        <v>4554</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="2"/>
+        <v>76.359999999999673</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -9987,8 +13841,15 @@
       <c r="G154" s="1">
         <v>4618.8</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H154" s="1">
+        <v>4544.1000000000004</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="2"/>
+        <v>74.699999999999818</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -10010,8 +13871,15 @@
       <c r="G155" s="1">
         <v>4707.8999999999996</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H155" s="1">
+        <v>4633.2</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="2"/>
+        <v>74.699999999999818</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -10033,8 +13901,15 @@
       <c r="G156" s="1">
         <v>4797</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H156" s="1">
+        <v>4722.3</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="2"/>
+        <v>74.699999999999818</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -10056,8 +13931,15 @@
       <c r="G157" s="1">
         <v>4886.1000000000004</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H157" s="1">
+        <v>4811.3999999999996</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="2"/>
+        <v>74.700000000000728</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -10079,8 +13961,15 @@
       <c r="G158" s="1">
         <v>4975.2</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H158" s="1">
+        <v>4900.5</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="2"/>
+        <v>74.699999999999818</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -10102,8 +13991,15 @@
       <c r="G159" s="1">
         <v>5064.3</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H159" s="1">
+        <v>4989.6000000000004</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="2"/>
+        <v>74.699999999999818</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -10125,8 +14021,15 @@
       <c r="G160" s="1">
         <v>5153.3999999999996</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H160" s="1">
+        <v>5078.7</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="2"/>
+        <v>74.699999999999818</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -10148,8 +14051,15 @@
       <c r="G161" s="1">
         <v>5242.5</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H161" s="1">
+        <v>5167.8</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="2"/>
+        <v>74.699999999999818</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -10171,8 +14081,15 @@
       <c r="G162" s="1">
         <v>5331.6</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H162" s="1">
+        <v>5256.9</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="2"/>
+        <v>74.700000000000728</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -10194,8 +14111,15 @@
       <c r="G163" s="1">
         <v>5420.7</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H163" s="1">
+        <v>5346</v>
+      </c>
+      <c r="I163">
+        <f t="shared" si="2"/>
+        <v>74.699999999999818</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -10217,8 +14141,15 @@
       <c r="G164" s="1">
         <v>5509.8</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H164" s="1">
+        <v>5435.1</v>
+      </c>
+      <c r="I164">
+        <f t="shared" si="2"/>
+        <v>74.699999999999818</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -10240,8 +14171,15 @@
       <c r="G165" s="1">
         <v>5598.9</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H165" s="1">
+        <v>5524.2</v>
+      </c>
+      <c r="I165">
+        <f t="shared" si="2"/>
+        <v>74.699999999999818</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>0</v>
       </c>
@@ -10263,8 +14201,15 @@
       <c r="G166" s="1">
         <v>5688</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H166" s="1">
+        <v>5613.3</v>
+      </c>
+      <c r="I166">
+        <f t="shared" si="2"/>
+        <v>74.699999999999818</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -10286,8 +14231,15 @@
       <c r="G167" s="1">
         <v>5777.1</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H167" s="1">
+        <v>5702.4</v>
+      </c>
+      <c r="I167">
+        <f t="shared" si="2"/>
+        <v>74.700000000000728</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -10309,8 +14261,15 @@
       <c r="G168" s="1">
         <v>5866.2</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H168" s="1">
+        <v>5791.5</v>
+      </c>
+      <c r="I168">
+        <f t="shared" si="2"/>
+        <v>74.699999999999818</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -10332,8 +14291,15 @@
       <c r="G169" s="1">
         <v>5955.3</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H169" s="1">
+        <v>5880.6</v>
+      </c>
+      <c r="I169">
+        <f t="shared" ref="I169:I203" si="3">G169-H169</f>
+        <v>74.699999999999818</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -10355,8 +14321,15 @@
       <c r="G170" s="1">
         <v>6044.4</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H170" s="1">
+        <v>5969.7</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="3"/>
+        <v>74.699999999999818</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -10378,8 +14351,15 @@
       <c r="G171" s="1">
         <v>6133.5</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H171" s="1">
+        <v>6058.8</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="3"/>
+        <v>74.699999999999818</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -10401,8 +14381,15 @@
       <c r="G172" s="1">
         <v>6222.6</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H172" s="1">
+        <v>6147.9</v>
+      </c>
+      <c r="I172">
+        <f t="shared" si="3"/>
+        <v>74.700000000000728</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -10424,8 +14411,15 @@
       <c r="G173" s="1">
         <v>6311.7</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H173" s="1">
+        <v>6237</v>
+      </c>
+      <c r="I173">
+        <f t="shared" si="3"/>
+        <v>74.699999999999818</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -10447,8 +14441,15 @@
       <c r="G174" s="1">
         <v>6400.8</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H174" s="1">
+        <v>6326.1</v>
+      </c>
+      <c r="I174">
+        <f t="shared" si="3"/>
+        <v>74.699999999999818</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -10470,8 +14471,15 @@
       <c r="G175" s="1">
         <v>6489.9</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H175" s="1">
+        <v>6415.2</v>
+      </c>
+      <c r="I175">
+        <f t="shared" si="3"/>
+        <v>74.699999999999818</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>0</v>
       </c>
@@ -10493,8 +14501,15 @@
       <c r="G176" s="1">
         <v>6579</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H176" s="1">
+        <v>6504.3</v>
+      </c>
+      <c r="I176">
+        <f t="shared" si="3"/>
+        <v>74.699999999999818</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -10516,8 +14531,15 @@
       <c r="G177" s="1">
         <v>6668.1</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H177" s="1">
+        <v>6593.4</v>
+      </c>
+      <c r="I177">
+        <f t="shared" si="3"/>
+        <v>74.700000000000728</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>0</v>
       </c>
@@ -10539,8 +14561,15 @@
       <c r="G178" s="1">
         <v>6757.2</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H178" s="1">
+        <v>6682.5</v>
+      </c>
+      <c r="I178">
+        <f t="shared" si="3"/>
+        <v>74.699999999999818</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -10562,8 +14591,15 @@
       <c r="G179" s="1">
         <v>6694.16</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H179" s="1">
+        <v>6621.12</v>
+      </c>
+      <c r="I179">
+        <f t="shared" si="3"/>
+        <v>73.039999999999964</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>0</v>
       </c>
@@ -10585,8 +14621,15 @@
       <c r="G180" s="1">
         <v>6781.28</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H180" s="1">
+        <v>6708.24</v>
+      </c>
+      <c r="I180">
+        <f t="shared" si="3"/>
+        <v>73.039999999999964</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -10608,8 +14651,15 @@
       <c r="G181" s="1">
         <v>6868.4</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H181" s="1">
+        <v>6795.36</v>
+      </c>
+      <c r="I181">
+        <f t="shared" si="3"/>
+        <v>73.039999999999964</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -10631,8 +14681,15 @@
       <c r="G182" s="1">
         <v>6955.52</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H182" s="1">
+        <v>6882.48</v>
+      </c>
+      <c r="I182">
+        <f t="shared" si="3"/>
+        <v>73.040000000000873</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -10654,8 +14711,15 @@
       <c r="G183" s="1">
         <v>7042.64</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H183" s="1">
+        <v>6969.6</v>
+      </c>
+      <c r="I183">
+        <f t="shared" si="3"/>
+        <v>73.039999999999964</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -10677,8 +14741,15 @@
       <c r="G184" s="1">
         <v>7129.76</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H184" s="1">
+        <v>7056.72</v>
+      </c>
+      <c r="I184">
+        <f t="shared" si="3"/>
+        <v>73.039999999999964</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -10700,8 +14771,15 @@
       <c r="G185" s="1">
         <v>7216.88</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H185" s="1">
+        <v>7143.84</v>
+      </c>
+      <c r="I185">
+        <f t="shared" si="3"/>
+        <v>73.039999999999964</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -10723,8 +14801,15 @@
       <c r="G186" s="1">
         <v>7304</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H186" s="1">
+        <v>7230.96</v>
+      </c>
+      <c r="I186">
+        <f t="shared" si="3"/>
+        <v>73.039999999999964</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -10746,8 +14831,15 @@
       <c r="G187" s="1">
         <v>7391.12</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H187" s="1">
+        <v>7318.08</v>
+      </c>
+      <c r="I187">
+        <f t="shared" si="3"/>
+        <v>73.039999999999964</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -10769,8 +14861,15 @@
       <c r="G188" s="1">
         <v>7478.24</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H188" s="1">
+        <v>7405.2</v>
+      </c>
+      <c r="I188">
+        <f t="shared" si="3"/>
+        <v>73.039999999999964</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -10792,8 +14891,15 @@
       <c r="G189" s="1">
         <v>7565.36</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H189" s="1">
+        <v>7492.32</v>
+      </c>
+      <c r="I189">
+        <f t="shared" si="3"/>
+        <v>73.039999999999964</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -10815,8 +14921,15 @@
       <c r="G190" s="1">
         <v>7652.48</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H190" s="1">
+        <v>7579.44</v>
+      </c>
+      <c r="I190">
+        <f t="shared" si="3"/>
+        <v>73.039999999999964</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -10838,8 +14951,15 @@
       <c r="G191" s="1">
         <v>7739.6</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H191" s="1">
+        <v>7666.56</v>
+      </c>
+      <c r="I191">
+        <f t="shared" si="3"/>
+        <v>73.039999999999964</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -10861,8 +14981,15 @@
       <c r="G192" s="1">
         <v>7826.72</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H192" s="1">
+        <v>7753.68</v>
+      </c>
+      <c r="I192">
+        <f t="shared" si="3"/>
+        <v>73.039999999999964</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -10884,8 +15011,15 @@
       <c r="G193" s="1">
         <v>7913.84</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H193" s="1">
+        <v>7840.8</v>
+      </c>
+      <c r="I193">
+        <f t="shared" si="3"/>
+        <v>73.039999999999964</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>0</v>
       </c>
@@ -10907,8 +15041,15 @@
       <c r="G194" s="1">
         <v>8000.96</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H194" s="1">
+        <v>7927.92</v>
+      </c>
+      <c r="I194">
+        <f t="shared" si="3"/>
+        <v>73.039999999999964</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -10930,8 +15071,15 @@
       <c r="G195" s="1">
         <v>8088.08</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H195" s="1">
+        <v>8015.04</v>
+      </c>
+      <c r="I195">
+        <f t="shared" si="3"/>
+        <v>73.039999999999964</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>0</v>
       </c>
@@ -10953,8 +15101,15 @@
       <c r="G196" s="1">
         <v>8175.2</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H196" s="1">
+        <v>8102.16</v>
+      </c>
+      <c r="I196">
+        <f t="shared" si="3"/>
+        <v>73.039999999999964</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -10976,8 +15131,15 @@
       <c r="G197" s="1">
         <v>8262.32</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H197" s="1">
+        <v>8189.28</v>
+      </c>
+      <c r="I197">
+        <f t="shared" si="3"/>
+        <v>73.039999999999964</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>0</v>
       </c>
@@ -10999,8 +15161,15 @@
       <c r="G198" s="1">
         <v>8349.44</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H198" s="1">
+        <v>8276.4</v>
+      </c>
+      <c r="I198">
+        <f t="shared" si="3"/>
+        <v>73.040000000000873</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>0</v>
       </c>
@@ -11022,8 +15191,15 @@
       <c r="G199" s="1">
         <v>8436.56</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H199" s="1">
+        <v>8363.52</v>
+      </c>
+      <c r="I199">
+        <f t="shared" si="3"/>
+        <v>73.039999999999054</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>0</v>
       </c>
@@ -11045,8 +15221,15 @@
       <c r="G200" s="1">
         <v>8523.68</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H200" s="1">
+        <v>8450.64</v>
+      </c>
+      <c r="I200">
+        <f t="shared" si="3"/>
+        <v>73.040000000000873</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>0</v>
       </c>
@@ -11068,8 +15251,15 @@
       <c r="G201" s="1">
         <v>8610.7999999999993</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H201" s="1">
+        <v>8537.76</v>
+      </c>
+      <c r="I201">
+        <f t="shared" si="3"/>
+        <v>73.039999999999054</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>0</v>
       </c>
@@ -11091,8 +15281,15 @@
       <c r="G202" s="1">
         <v>8697.92</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H202" s="1">
+        <v>8624.8799999999992</v>
+      </c>
+      <c r="I202">
+        <f t="shared" si="3"/>
+        <v>73.040000000000873</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -11113,6 +15310,13 @@
       </c>
       <c r="G203" s="1">
         <v>8785.0400000000009</v>
+      </c>
+      <c r="H203" s="1">
+        <v>8712</v>
+      </c>
+      <c r="I203">
+        <f t="shared" si="3"/>
+        <v>73.040000000000873</v>
       </c>
     </row>
   </sheetData>
